--- a/Reptiles_personnelsystem/西太湖_人才企业信息统计.xlsx
+++ b/Reptiles_personnelsystem/西太湖_人才企业信息统计.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\useful_scripts\Reptiles_qichacha\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\useful_scripts\Reptiles_personnelsystem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20D83D46-25BD-4613-86C1-36CB0C4FBE9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58B7D8B9-B543-4A90-9CC2-21F60F197A79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="225" yWindow="225" windowWidth="25590" windowHeight="13800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2632" uniqueCount="1051">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2632" uniqueCount="1058">
   <si>
     <t>序号</t>
   </si>
@@ -2056,17 +2056,6 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>王涵文</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
       <t>常州磐诺仪器有限公司</t>
     </r>
   </si>
@@ -2221,17 +2210,6 @@
         <charset val="134"/>
       </rPr>
       <t>高性能聚酰亚胺纤维的产业化</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>董国材</t>
     </r>
   </si>
   <si>
@@ -2568,17 +2546,6 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>陈元伟</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
       <t>常州尚美医药科技有限公司</t>
     </r>
   </si>
@@ -2695,9 +2662,6 @@
       </rPr>
       <t>生物多糖制备</t>
     </r>
-  </si>
-  <si>
-    <t>李浩</t>
   </si>
   <si>
     <r>
@@ -4180,25 +4144,6 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>李亚利</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>*</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -4703,29 +4648,7 @@
     <t>常州艾欧塔物联网科技有限公司</t>
   </si>
   <si>
-    <t>张涛*</t>
-  </si>
-  <si>
     <t>常州爱康臻医疗科技有限公司</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>郭旭</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>*</t>
-    </r>
   </si>
   <si>
     <t>常州合欣达旭新能源科技发展有限公司</t>
@@ -4796,9 +4719,6 @@
     <t>曹玉莉</t>
   </si>
   <si>
-    <t>* CHI CHARLIE WEN-REN</t>
-  </si>
-  <si>
     <t>姚义俊</t>
   </si>
   <si>
@@ -4890,9 +4810,6 @@
     <t>常州鼎韦环保科技有限公司</t>
   </si>
   <si>
-    <t>王会</t>
-  </si>
-  <si>
     <t>常州市艾斯康生物医药有限公司</t>
   </si>
   <si>
@@ -5346,6 +5263,91 @@
   </si>
   <si>
     <t>91320412321253789T</t>
+  </si>
+  <si>
+    <t>王涵文</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>张涛*</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>郭旭</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>* CHI CHARLIE WEN-REN</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>李亚利</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>王会</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>“龙城英才计划”第十批</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>“龙城英才计划”第十四批</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>“龙城英才计划”第十一批</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>李浩</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈元伟</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>董国材</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">学位选择
+</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>证件号码</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>证件类型</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>人才联系方式</t>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -5719,7 +5721,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5928,6 +5930,9 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="27" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -5954,6 +5959,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -23185,7 +23193,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T79"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
@@ -27430,27 +27438,27 @@
       </c>
     </row>
     <row r="79" spans="1:19" ht="102.95" customHeight="1">
-      <c r="A79" s="70" t="s">
+      <c r="A79" s="71" t="s">
         <v>497</v>
       </c>
-      <c r="B79" s="71"/>
-      <c r="C79" s="72"/>
-      <c r="D79" s="73"/>
-      <c r="E79" s="71"/>
-      <c r="F79" s="73"/>
-      <c r="G79" s="74"/>
-      <c r="H79" s="71"/>
-      <c r="I79" s="73"/>
-      <c r="J79" s="71"/>
-      <c r="K79" s="71"/>
-      <c r="L79" s="71"/>
-      <c r="M79" s="74"/>
-      <c r="N79" s="74"/>
-      <c r="O79" s="71"/>
-      <c r="P79" s="72"/>
-      <c r="Q79" s="71"/>
-      <c r="R79" s="73"/>
-      <c r="S79" s="71"/>
+      <c r="B79" s="72"/>
+      <c r="C79" s="73"/>
+      <c r="D79" s="74"/>
+      <c r="E79" s="72"/>
+      <c r="F79" s="74"/>
+      <c r="G79" s="75"/>
+      <c r="H79" s="72"/>
+      <c r="I79" s="74"/>
+      <c r="J79" s="72"/>
+      <c r="K79" s="72"/>
+      <c r="L79" s="72"/>
+      <c r="M79" s="75"/>
+      <c r="N79" s="75"/>
+      <c r="O79" s="72"/>
+      <c r="P79" s="73"/>
+      <c r="Q79" s="72"/>
+      <c r="R79" s="74"/>
+      <c r="S79" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -27474,14 +27482,15 @@
   <dimension ref="A1:U181"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="B9" sqref="B9:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="2" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="15.125" style="1" customWidth="1"/>
     <col min="3" max="3" width="14.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9" style="1" customWidth="1"/>
+    <col min="4" max="4" width="29.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="27.875" style="1" customWidth="1"/>
     <col min="6" max="6" width="38.875" style="1" customWidth="1"/>
     <col min="7" max="7" width="20.25" style="1" customWidth="1"/>
@@ -27511,22 +27520,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>3</v>
+        <v>1054</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>6</v>
+      <c r="F1" s="70" t="s">
+        <v>1056</v>
+      </c>
+      <c r="G1" s="70" t="s">
+        <v>1055</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="65" t="s">
-        <v>908</v>
+        <v>899</v>
       </c>
       <c r="J1" s="5" t="s">
         <v>8</v>
@@ -27549,8 +27558,8 @@
       <c r="P1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="4" t="s">
-        <v>15</v>
+      <c r="Q1" s="70" t="s">
+        <v>1057</v>
       </c>
       <c r="R1" s="3" t="s">
         <v>16</v>
@@ -27629,10 +27638,10 @@
       </c>
     </row>
     <row r="4" spans="1:20" ht="30" customHeight="1">
-      <c r="A4" s="76">
+      <c r="A4" s="77">
         <v>3</v>
       </c>
-      <c r="B4" s="75" t="s">
+      <c r="B4" s="76" t="s">
         <v>509</v>
       </c>
       <c r="H4" s="8" t="s">
@@ -27657,13 +27666,13 @@
       <c r="R4" s="14" t="s">
         <v>504</v>
       </c>
-      <c r="S4" s="75" t="s">
+      <c r="S4" s="76" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="30" customHeight="1">
-      <c r="A5" s="77"/>
-      <c r="B5" s="75"/>
+      <c r="A5" s="78"/>
+      <c r="B5" s="76"/>
       <c r="H5" s="8" t="s">
         <v>513</v>
       </c>
@@ -27686,7 +27695,7 @@
       <c r="R5" s="14" t="s">
         <v>504</v>
       </c>
-      <c r="S5" s="75"/>
+      <c r="S5" s="76"/>
     </row>
     <row r="6" spans="1:20" ht="30" customHeight="1">
       <c r="A6" s="6">
@@ -27784,18 +27793,18 @@
         <v>504</v>
       </c>
       <c r="S8" s="59" t="s">
-        <v>907</v>
+        <v>898</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="30" customHeight="1">
-      <c r="A9" s="76">
+      <c r="A9" s="77">
         <v>7</v>
       </c>
-      <c r="B9" s="75" t="s">
+      <c r="B9" s="80" t="s">
+        <v>1042</v>
+      </c>
+      <c r="H9" s="8" t="s">
         <v>522</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>523</v>
       </c>
       <c r="I9" s="60"/>
       <c r="K9" s="1" t="s">
@@ -27805,26 +27814,26 @@
         <v>26</v>
       </c>
       <c r="M9" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="N9" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="N9" s="2" t="s">
+      <c r="O9" s="2" t="s">
         <v>525</v>
       </c>
-      <c r="O9" s="2" t="s">
+      <c r="R9" s="14" t="s">
         <v>526</v>
       </c>
-      <c r="R9" s="14" t="s">
+      <c r="S9" s="76" t="s">
         <v>527</v>
-      </c>
-      <c r="S9" s="75" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="30" customHeight="1">
-      <c r="A10" s="78"/>
-      <c r="B10" s="75"/>
+      <c r="A10" s="79"/>
+      <c r="B10" s="76"/>
       <c r="H10" s="8" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="I10" s="60"/>
       <c r="K10" s="1" t="s">
@@ -27834,24 +27843,24 @@
         <v>26</v>
       </c>
       <c r="M10" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="N10" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="N10" s="2" t="s">
+      <c r="O10" s="2" t="s">
         <v>525</v>
       </c>
-      <c r="O10" s="2" t="s">
+      <c r="R10" s="14" t="s">
         <v>526</v>
       </c>
-      <c r="R10" s="14" t="s">
-        <v>527</v>
-      </c>
-      <c r="S10" s="75"/>
+      <c r="S10" s="76"/>
     </row>
     <row r="11" spans="1:20" ht="30" customHeight="1">
-      <c r="A11" s="77"/>
-      <c r="B11" s="75"/>
+      <c r="A11" s="78"/>
+      <c r="B11" s="76"/>
       <c r="H11" s="8" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I11" s="60"/>
       <c r="K11" s="1" t="s">
@@ -27861,28 +27870,28 @@
         <v>26</v>
       </c>
       <c r="M11" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="N11" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="N11" s="2" t="s">
+      <c r="O11" s="2" t="s">
         <v>525</v>
       </c>
-      <c r="O11" s="2" t="s">
+      <c r="R11" s="14" t="s">
         <v>526</v>
       </c>
-      <c r="R11" s="14" t="s">
-        <v>527</v>
-      </c>
-      <c r="S11" s="75"/>
+      <c r="S11" s="76"/>
     </row>
     <row r="12" spans="1:20" ht="30" customHeight="1">
       <c r="A12" s="6">
         <v>8</v>
       </c>
       <c r="B12" s="8" t="s">
+        <v>530</v>
+      </c>
+      <c r="H12" s="8" t="s">
         <v>531</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>532</v>
       </c>
       <c r="I12" s="60"/>
       <c r="K12" s="1" t="s">
@@ -27892,19 +27901,19 @@
         <v>26</v>
       </c>
       <c r="M12" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="N12" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="N12" s="2" t="s">
+      <c r="O12" s="2" t="s">
         <v>525</v>
       </c>
-      <c r="O12" s="2" t="s">
+      <c r="R12" s="14" t="s">
         <v>526</v>
       </c>
-      <c r="R12" s="14" t="s">
-        <v>527</v>
-      </c>
       <c r="S12" s="8" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="30" customHeight="1">
@@ -27912,10 +27921,10 @@
         <v>9</v>
       </c>
       <c r="B13" s="8" t="s">
+        <v>533</v>
+      </c>
+      <c r="H13" s="8" t="s">
         <v>534</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>535</v>
       </c>
       <c r="I13" s="60"/>
       <c r="K13" s="1" t="s">
@@ -27925,30 +27934,30 @@
         <v>26</v>
       </c>
       <c r="M13" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="N13" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="N13" s="2" t="s">
+      <c r="O13" s="2" t="s">
         <v>525</v>
       </c>
-      <c r="O13" s="2" t="s">
+      <c r="R13" s="14" t="s">
         <v>526</v>
       </c>
-      <c r="R13" s="14" t="s">
-        <v>527</v>
-      </c>
       <c r="S13" s="8" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="30" customHeight="1">
-      <c r="A14" s="76">
+      <c r="A14" s="77">
         <v>10</v>
       </c>
-      <c r="B14" s="75" t="s">
-        <v>537</v>
+      <c r="B14" s="80" t="s">
+        <v>1053</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="I14" s="60"/>
       <c r="K14" s="1" t="s">
@@ -27958,26 +27967,26 @@
         <v>26</v>
       </c>
       <c r="M14" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="N14" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="N14" s="2" t="s">
+      <c r="O14" s="2" t="s">
         <v>525</v>
       </c>
-      <c r="O14" s="2" t="s">
+      <c r="R14" s="14" t="s">
         <v>526</v>
       </c>
-      <c r="R14" s="14" t="s">
-        <v>527</v>
-      </c>
-      <c r="S14" s="75" t="s">
-        <v>539</v>
+      <c r="S14" s="76" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="30" customHeight="1">
-      <c r="A15" s="77"/>
-      <c r="B15" s="75"/>
+      <c r="A15" s="78"/>
+      <c r="B15" s="76"/>
       <c r="H15" s="8" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="I15" s="60"/>
       <c r="K15" s="1" t="s">
@@ -27987,28 +27996,28 @@
         <v>26</v>
       </c>
       <c r="M15" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="N15" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="N15" s="2" t="s">
+      <c r="O15" s="2" t="s">
         <v>525</v>
       </c>
-      <c r="O15" s="2" t="s">
+      <c r="R15" s="14" t="s">
         <v>526</v>
       </c>
-      <c r="R15" s="14" t="s">
-        <v>527</v>
-      </c>
-      <c r="S15" s="75"/>
+      <c r="S15" s="76"/>
     </row>
     <row r="16" spans="1:20" ht="30" customHeight="1">
       <c r="A16" s="6">
         <v>11</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="I16" s="60"/>
       <c r="K16" s="1" t="s">
@@ -28018,19 +28027,19 @@
         <v>26</v>
       </c>
       <c r="M16" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="N16" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="N16" s="2" t="s">
+      <c r="O16" s="2" t="s">
         <v>525</v>
       </c>
-      <c r="O16" s="2" t="s">
+      <c r="R16" s="14" t="s">
         <v>526</v>
       </c>
-      <c r="R16" s="14" t="s">
-        <v>527</v>
-      </c>
       <c r="S16" s="8" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="30" customHeight="1">
@@ -28038,10 +28047,10 @@
         <v>12</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="I17" s="60"/>
       <c r="K17" s="1" t="s">
@@ -28051,19 +28060,19 @@
         <v>26</v>
       </c>
       <c r="M17" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="N17" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="N17" s="2" t="s">
+      <c r="O17" s="2" t="s">
         <v>525</v>
       </c>
-      <c r="O17" s="2" t="s">
+      <c r="R17" s="14" t="s">
         <v>526</v>
       </c>
-      <c r="R17" s="14" t="s">
-        <v>527</v>
-      </c>
       <c r="S17" s="8" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="18" spans="1:19" ht="30" customHeight="1">
@@ -28071,10 +28080,10 @@
         <v>13</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="I18" s="60"/>
       <c r="K18" s="1" t="s">
@@ -28084,19 +28093,19 @@
         <v>26</v>
       </c>
       <c r="M18" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="N18" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="N18" s="2" t="s">
+      <c r="O18" s="2" t="s">
         <v>525</v>
       </c>
-      <c r="O18" s="2" t="s">
+      <c r="R18" s="14" t="s">
         <v>526</v>
       </c>
-      <c r="R18" s="14" t="s">
-        <v>527</v>
-      </c>
       <c r="S18" s="8" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="19" spans="1:19" ht="30" customHeight="1">
@@ -28104,10 +28113,10 @@
         <v>14</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="I19" s="60"/>
       <c r="K19" s="1" t="s">
@@ -28117,19 +28126,19 @@
         <v>26</v>
       </c>
       <c r="M19" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="N19" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="N19" s="2" t="s">
+      <c r="O19" s="2" t="s">
         <v>525</v>
       </c>
-      <c r="O19" s="2" t="s">
+      <c r="R19" s="14" t="s">
         <v>526</v>
       </c>
-      <c r="R19" s="14" t="s">
-        <v>527</v>
-      </c>
       <c r="S19" s="8" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="20" spans="1:19" ht="30" customHeight="1">
@@ -28137,10 +28146,10 @@
         <v>15</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="I20" s="60"/>
       <c r="K20" s="1" t="s">
@@ -28150,19 +28159,19 @@
         <v>26</v>
       </c>
       <c r="M20" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="N20" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="N20" s="2" t="s">
+      <c r="O20" s="2" t="s">
         <v>525</v>
       </c>
-      <c r="O20" s="2" t="s">
-        <v>526</v>
-      </c>
       <c r="R20" s="14" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="S20" s="8" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="21" spans="1:19" ht="30" customHeight="1">
@@ -28170,10 +28179,10 @@
         <v>16</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="I21" s="60"/>
       <c r="K21" s="1" t="s">
@@ -28183,19 +28192,19 @@
         <v>26</v>
       </c>
       <c r="M21" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="N21" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="N21" s="2" t="s">
+      <c r="O21" s="2" t="s">
         <v>525</v>
       </c>
-      <c r="O21" s="2" t="s">
-        <v>526</v>
-      </c>
       <c r="R21" s="14" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="S21" s="8" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="22" spans="1:19" ht="30" customHeight="1">
@@ -28203,10 +28212,10 @@
         <v>17</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="I22" s="60"/>
       <c r="K22" s="1" t="s">
@@ -28216,19 +28225,19 @@
         <v>26</v>
       </c>
       <c r="M22" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="N22" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="N22" s="2" t="s">
+      <c r="O22" s="2" t="s">
         <v>525</v>
       </c>
-      <c r="O22" s="2" t="s">
-        <v>526</v>
-      </c>
       <c r="R22" s="14" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="S22" s="8" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="30" customHeight="1">
@@ -28236,10 +28245,10 @@
         <v>18</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="I23" s="60"/>
       <c r="K23" s="1" t="s">
@@ -28249,30 +28258,30 @@
         <v>26</v>
       </c>
       <c r="M23" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="N23" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="N23" s="2" t="s">
+      <c r="O23" s="2" t="s">
         <v>525</v>
       </c>
-      <c r="O23" s="2" t="s">
-        <v>526</v>
-      </c>
       <c r="R23" s="14" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="S23" s="8" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="24" spans="1:19" ht="30" customHeight="1">
       <c r="A24" s="6">
         <v>19</v>
       </c>
-      <c r="B24" s="8" t="s">
-        <v>566</v>
+      <c r="B24" s="7" t="s">
+        <v>1052</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="I24" s="60"/>
       <c r="K24" s="1" t="s">
@@ -28282,19 +28291,19 @@
         <v>26</v>
       </c>
       <c r="M24" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="N24" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="N24" s="2" t="s">
+      <c r="O24" s="2" t="s">
         <v>525</v>
       </c>
-      <c r="O24" s="2" t="s">
-        <v>526</v>
-      </c>
       <c r="R24" s="14" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="S24" s="8" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
     </row>
     <row r="25" spans="1:19" ht="30" customHeight="1">
@@ -28302,10 +28311,10 @@
         <v>20</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="I25" s="60"/>
       <c r="K25" s="1" t="s">
@@ -28315,19 +28324,19 @@
         <v>26</v>
       </c>
       <c r="M25" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="O25" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="R25" s="14" t="s">
         <v>571</v>
       </c>
-      <c r="N25" s="2" t="s">
+      <c r="S25" s="8" t="s">
         <v>572</v>
-      </c>
-      <c r="O25" s="2" t="s">
-        <v>573</v>
-      </c>
-      <c r="R25" s="14" t="s">
-        <v>574</v>
-      </c>
-      <c r="S25" s="8" t="s">
-        <v>575</v>
       </c>
     </row>
     <row r="26" spans="1:19" ht="30" customHeight="1">
@@ -28335,10 +28344,10 @@
         <v>21</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="I26" s="60"/>
       <c r="K26" s="1" t="s">
@@ -28348,19 +28357,19 @@
         <v>26</v>
       </c>
       <c r="M26" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="O26" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="R26" s="14" t="s">
         <v>571</v>
       </c>
-      <c r="N26" s="2" t="s">
-        <v>572</v>
-      </c>
-      <c r="O26" s="2" t="s">
-        <v>573</v>
-      </c>
-      <c r="R26" s="14" t="s">
-        <v>574</v>
-      </c>
       <c r="S26" s="8" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
     </row>
     <row r="27" spans="1:19" ht="30" customHeight="1">
@@ -28368,10 +28377,10 @@
         <v>22</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="I27" s="60"/>
       <c r="K27" s="1" t="s">
@@ -28381,30 +28390,30 @@
         <v>26</v>
       </c>
       <c r="M27" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="O27" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="R27" s="14" t="s">
         <v>571</v>
       </c>
-      <c r="N27" s="2" t="s">
-        <v>572</v>
-      </c>
-      <c r="O27" s="2" t="s">
-        <v>573</v>
-      </c>
-      <c r="R27" s="14" t="s">
-        <v>574</v>
-      </c>
       <c r="S27" s="8" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
     </row>
     <row r="28" spans="1:19" ht="30" customHeight="1">
-      <c r="A28" s="76">
+      <c r="A28" s="77">
         <v>23</v>
       </c>
-      <c r="B28" s="75" t="s">
-        <v>582</v>
+      <c r="B28" s="80" t="s">
+        <v>1051</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="I28" s="60"/>
       <c r="K28" s="1" t="s">
@@ -28414,26 +28423,26 @@
         <v>26</v>
       </c>
       <c r="M28" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="O28" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="R28" s="14" t="s">
         <v>571</v>
       </c>
-      <c r="N28" s="2" t="s">
-        <v>572</v>
-      </c>
-      <c r="O28" s="2" t="s">
-        <v>573</v>
-      </c>
-      <c r="R28" s="14" t="s">
-        <v>574</v>
-      </c>
-      <c r="S28" s="75" t="s">
-        <v>584</v>
+      <c r="S28" s="76" t="s">
+        <v>580</v>
       </c>
     </row>
     <row r="29" spans="1:19" ht="30" customHeight="1">
-      <c r="A29" s="78"/>
-      <c r="B29" s="75"/>
+      <c r="A29" s="79"/>
+      <c r="B29" s="76"/>
       <c r="H29" s="8" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="I29" s="60"/>
       <c r="K29" s="1" t="s">
@@ -28443,24 +28452,24 @@
         <v>26</v>
       </c>
       <c r="M29" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="O29" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="R29" s="14" t="s">
         <v>571</v>
       </c>
-      <c r="N29" s="2" t="s">
-        <v>572</v>
-      </c>
-      <c r="O29" s="2" t="s">
-        <v>573</v>
-      </c>
-      <c r="R29" s="14" t="s">
-        <v>574</v>
-      </c>
-      <c r="S29" s="75"/>
+      <c r="S29" s="76"/>
     </row>
     <row r="30" spans="1:19" ht="30" customHeight="1">
-      <c r="A30" s="77"/>
-      <c r="B30" s="75"/>
+      <c r="A30" s="78"/>
+      <c r="B30" s="76"/>
       <c r="H30" s="8" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="I30" s="60"/>
       <c r="K30" s="1" t="s">
@@ -28470,28 +28479,28 @@
         <v>26</v>
       </c>
       <c r="M30" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="N30" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="O30" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="R30" s="14" t="s">
         <v>571</v>
       </c>
-      <c r="N30" s="2" t="s">
-        <v>572</v>
-      </c>
-      <c r="O30" s="2" t="s">
-        <v>573</v>
-      </c>
-      <c r="R30" s="14" t="s">
-        <v>574</v>
-      </c>
-      <c r="S30" s="75"/>
+      <c r="S30" s="76"/>
     </row>
     <row r="31" spans="1:19" ht="30" customHeight="1">
       <c r="A31" s="6">
         <v>24</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="I31" s="60"/>
       <c r="K31" s="1" t="s">
@@ -28501,19 +28510,19 @@
         <v>26</v>
       </c>
       <c r="M31" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="N31" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="O31" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="R31" s="14" t="s">
         <v>571</v>
       </c>
-      <c r="N31" s="2" t="s">
-        <v>572</v>
-      </c>
-      <c r="O31" s="2" t="s">
-        <v>573</v>
-      </c>
-      <c r="R31" s="14" t="s">
-        <v>574</v>
-      </c>
       <c r="S31" s="8" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
     </row>
     <row r="32" spans="1:19" ht="30" customHeight="1">
@@ -28521,10 +28530,10 @@
         <v>25</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="H32" s="8" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="I32" s="60"/>
       <c r="K32" s="1" t="s">
@@ -28534,19 +28543,19 @@
         <v>26</v>
       </c>
       <c r="M32" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="N32" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="O32" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="R32" s="14" t="s">
         <v>571</v>
       </c>
-      <c r="N32" s="2" t="s">
-        <v>572</v>
-      </c>
-      <c r="O32" s="2" t="s">
-        <v>573</v>
-      </c>
-      <c r="R32" s="14" t="s">
-        <v>574</v>
-      </c>
       <c r="S32" s="8" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
     </row>
     <row r="33" spans="1:19" ht="30" customHeight="1">
@@ -28554,10 +28563,10 @@
         <v>26</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="H33" s="8" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="I33" s="60"/>
       <c r="K33" s="1" t="s">
@@ -28567,19 +28576,19 @@
         <v>26</v>
       </c>
       <c r="M33" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="N33" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="O33" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="R33" s="14" t="s">
         <v>571</v>
       </c>
-      <c r="N33" s="2" t="s">
-        <v>572</v>
-      </c>
-      <c r="O33" s="2" t="s">
-        <v>573</v>
-      </c>
-      <c r="R33" s="14" t="s">
-        <v>574</v>
-      </c>
       <c r="S33" s="7" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
     </row>
     <row r="34" spans="1:19" ht="30" customHeight="1">
@@ -28587,10 +28596,10 @@
         <v>27</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="H34" s="8" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="I34" s="60"/>
       <c r="K34" s="1" t="s">
@@ -28600,19 +28609,19 @@
         <v>26</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="R34" s="14" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="S34" s="8" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="35" spans="1:19" ht="30" customHeight="1">
@@ -28620,10 +28629,10 @@
         <v>28</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="H35" s="8" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="I35" s="60"/>
       <c r="K35" s="1" t="s">
@@ -28633,19 +28642,19 @@
         <v>26</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="O35" s="2" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="R35" s="14" t="s">
+        <v>594</v>
+      </c>
+      <c r="S35" s="8" t="s">
         <v>598</v>
-      </c>
-      <c r="S35" s="8" t="s">
-        <v>602</v>
       </c>
     </row>
     <row r="36" spans="1:19" ht="30" customHeight="1">
@@ -28653,10 +28662,10 @@
         <v>29</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="H36" s="8" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="I36" s="60"/>
       <c r="K36" s="1" t="s">
@@ -28666,19 +28675,19 @@
         <v>26</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="O36" s="2" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="R36" s="14" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="S36" s="8" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
     </row>
     <row r="37" spans="1:19" ht="30" customHeight="1">
@@ -28686,10 +28695,10 @@
         <v>30</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="H37" s="8" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="I37" s="60"/>
       <c r="K37" s="1" t="s">
@@ -28699,19 +28708,19 @@
         <v>26</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="R37" s="14" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="S37" s="8" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
     </row>
     <row r="38" spans="1:19" ht="30" customHeight="1">
@@ -28719,17 +28728,17 @@
         <v>31</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="E38" s="67"/>
       <c r="H38" s="8" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="I38" s="67" t="s">
-        <v>1006</v>
+        <v>997</v>
       </c>
       <c r="J38" s="67" t="s">
-        <v>1032</v>
+        <v>1023</v>
       </c>
       <c r="K38" s="1" t="s">
         <v>500</v>
@@ -28738,19 +28747,19 @@
         <v>26</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="R38" s="14" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="S38" s="8" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
     </row>
     <row r="39" spans="1:19" ht="30" customHeight="1">
@@ -28758,17 +28767,17 @@
         <v>32</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="E39" s="67"/>
       <c r="H39" s="8" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="I39" s="67" t="s">
-        <v>1007</v>
+        <v>998</v>
       </c>
       <c r="J39" s="67" t="s">
-        <v>1033</v>
+        <v>1024</v>
       </c>
       <c r="K39" s="1" t="s">
         <v>500</v>
@@ -28777,19 +28786,19 @@
         <v>26</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="O39" s="2" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="R39" s="14" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="S39" s="8" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
     </row>
     <row r="40" spans="1:19" ht="30" customHeight="1">
@@ -28797,17 +28806,17 @@
         <v>33</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="E40" s="67"/>
       <c r="H40" s="8" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="I40" s="67" t="s">
-        <v>1008</v>
+        <v>999</v>
       </c>
       <c r="J40" s="67" t="s">
-        <v>1034</v>
+        <v>1025</v>
       </c>
       <c r="K40" s="1" t="s">
         <v>500</v>
@@ -28816,19 +28825,19 @@
         <v>26</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="O40" s="2" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="R40" s="14" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="S40" s="8" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
     </row>
     <row r="41" spans="1:19" ht="30" customHeight="1">
@@ -28836,19 +28845,19 @@
         <v>34</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="E41" s="67" t="s">
         <v>170</v>
       </c>
       <c r="H41" s="8" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="I41" s="67" t="s">
-        <v>1009</v>
+        <v>1000</v>
       </c>
       <c r="J41" s="67" t="s">
-        <v>1035</v>
+        <v>1026</v>
       </c>
       <c r="K41" s="1" t="s">
         <v>500</v>
@@ -28857,19 +28866,19 @@
         <v>26</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="O41" s="2" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="R41" s="14" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="S41" s="8" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
     </row>
     <row r="42" spans="1:19" ht="30" customHeight="1">
@@ -28877,17 +28886,17 @@
         <v>35</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="E42" s="67"/>
       <c r="H42" s="8" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="I42" s="67" t="s">
-        <v>1010</v>
+        <v>1001</v>
       </c>
       <c r="J42" s="67" t="s">
-        <v>1036</v>
+        <v>1027</v>
       </c>
       <c r="K42" s="1" t="s">
         <v>500</v>
@@ -28896,19 +28905,19 @@
         <v>26</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="O42" s="2" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="R42" s="14" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="S42" s="8" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
     </row>
     <row r="43" spans="1:19" ht="30" customHeight="1">
@@ -28916,17 +28925,17 @@
         <v>36</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="E43" s="67"/>
       <c r="H43" s="8" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="I43" s="67" t="s">
-        <v>1011</v>
+        <v>1002</v>
       </c>
       <c r="J43" s="67" t="s">
-        <v>1037</v>
+        <v>1028</v>
       </c>
       <c r="K43" s="1" t="s">
         <v>500</v>
@@ -28935,19 +28944,19 @@
         <v>26</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="O43" s="2" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="R43" s="14" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="S43" s="8" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
     </row>
     <row r="44" spans="1:19" ht="30" customHeight="1">
@@ -28955,19 +28964,19 @@
         <v>37</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="E44" s="67" t="s">
         <v>170</v>
       </c>
       <c r="H44" s="8" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="I44" s="67" t="s">
-        <v>1012</v>
+        <v>1003</v>
       </c>
       <c r="J44" s="67" t="s">
-        <v>1038</v>
+        <v>1029</v>
       </c>
       <c r="K44" s="1" t="s">
         <v>500</v>
@@ -28976,19 +28985,19 @@
         <v>26</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="O44" s="2" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="R44" s="14" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="S44" s="8" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
     </row>
     <row r="45" spans="1:19" ht="30" customHeight="1">
@@ -28996,17 +29005,17 @@
         <v>38</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="E45" s="67"/>
       <c r="H45" s="8" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="I45" s="67" t="s">
-        <v>1013</v>
+        <v>1004</v>
       </c>
       <c r="J45" s="67" t="s">
-        <v>1039</v>
+        <v>1030</v>
       </c>
       <c r="K45" s="1" t="s">
         <v>500</v>
@@ -29015,19 +29024,19 @@
         <v>26</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="O45" s="2" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="R45" s="14" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="S45" s="8" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
     </row>
     <row r="46" spans="1:19" ht="30" customHeight="1">
@@ -29035,19 +29044,19 @@
         <v>39</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="E46" s="67" t="s">
-        <v>1044</v>
+        <v>1035</v>
       </c>
       <c r="H46" s="8" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="I46" s="67" t="s">
-        <v>1014</v>
+        <v>1005</v>
       </c>
       <c r="J46" s="67" t="s">
-        <v>1040</v>
+        <v>1031</v>
       </c>
       <c r="K46" s="1" t="s">
         <v>500</v>
@@ -29056,19 +29065,19 @@
         <v>26</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="O46" s="2" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="R46" s="14" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="S46" s="8" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
     </row>
     <row r="47" spans="1:19" ht="30" customHeight="1">
@@ -29076,17 +29085,17 @@
         <v>40</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="E47" s="67"/>
       <c r="H47" s="8" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="I47" s="67" t="s">
-        <v>1015</v>
+        <v>1006</v>
       </c>
       <c r="J47" s="67" t="s">
-        <v>1041</v>
+        <v>1032</v>
       </c>
       <c r="K47" s="1" t="s">
         <v>500</v>
@@ -29095,19 +29104,19 @@
         <v>26</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="O47" s="2" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="R47" s="14" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="S47" s="7" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
     </row>
     <row r="48" spans="1:19" ht="30" customHeight="1">
@@ -29115,19 +29124,19 @@
         <v>41</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="E48" s="67" t="s">
-        <v>1045</v>
+        <v>1036</v>
       </c>
       <c r="H48" s="10" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="I48" s="67" t="s">
-        <v>1016</v>
+        <v>1007</v>
       </c>
       <c r="J48" s="67" t="s">
-        <v>1042</v>
+        <v>1033</v>
       </c>
       <c r="K48" s="1" t="s">
         <v>500</v>
@@ -29136,16 +29145,16 @@
         <v>26</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="N48" s="2" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="O48" s="2" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="R48" s="14" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
     </row>
     <row r="49" spans="1:18" ht="30" customHeight="1">
@@ -29153,19 +29162,19 @@
         <v>42</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="E49" s="67" t="s">
         <v>42</v>
       </c>
       <c r="H49" s="11" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="I49" s="67" t="s">
-        <v>1017</v>
+        <v>1008</v>
       </c>
       <c r="J49" s="67" t="s">
-        <v>1043</v>
+        <v>1034</v>
       </c>
       <c r="K49" s="1" t="s">
         <v>500</v>
@@ -29174,16 +29183,16 @@
         <v>26</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="O49" s="2" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="R49" s="14" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
     </row>
     <row r="50" spans="1:18" ht="30" customHeight="1">
@@ -29191,13 +29200,13 @@
         <v>43</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="H50" s="11" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="I50" s="67" t="s">
-        <v>1018</v>
+        <v>1009</v>
       </c>
       <c r="K50" s="1" t="s">
         <v>500</v>
@@ -29206,16 +29215,16 @@
         <v>26</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="N50" s="2" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="O50" s="2" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="R50" s="14" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
     </row>
     <row r="51" spans="1:18" ht="30" customHeight="1">
@@ -29223,19 +29232,19 @@
         <v>44</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="E51" s="67" t="s">
         <v>170</v>
       </c>
       <c r="H51" s="11" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="I51" s="67" t="s">
-        <v>1019</v>
+        <v>1010</v>
       </c>
       <c r="J51" s="67" t="s">
-        <v>1046</v>
+        <v>1037</v>
       </c>
       <c r="K51" s="1" t="s">
         <v>500</v>
@@ -29244,16 +29253,16 @@
         <v>26</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="N51" s="2" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="O51" s="2" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="R51" s="14" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
     </row>
     <row r="52" spans="1:18" ht="30" customHeight="1">
@@ -29261,19 +29270,19 @@
         <v>45</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="E52" s="67" t="s">
         <v>42</v>
       </c>
       <c r="H52" s="11" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="I52" s="67" t="s">
-        <v>1020</v>
+        <v>1011</v>
       </c>
       <c r="J52" s="67" t="s">
-        <v>1047</v>
+        <v>1038</v>
       </c>
       <c r="K52" s="1" t="s">
         <v>500</v>
@@ -29282,16 +29291,16 @@
         <v>26</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="N52" s="2" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="O52" s="2" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="R52" s="14" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
     </row>
     <row r="53" spans="1:18" ht="30" customHeight="1">
@@ -29299,19 +29308,19 @@
         <v>46</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="E53" s="67" t="s">
         <v>34</v>
       </c>
       <c r="H53" s="11" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="I53" s="67" t="s">
-        <v>1021</v>
+        <v>1012</v>
       </c>
       <c r="J53" s="67" t="s">
-        <v>1048</v>
+        <v>1039</v>
       </c>
       <c r="K53" s="1" t="s">
         <v>500</v>
@@ -29320,16 +29329,16 @@
         <v>26</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="N53" s="2" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="O53" s="2" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="R53" s="14" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
     </row>
     <row r="54" spans="1:18" ht="30" customHeight="1">
@@ -29337,16 +29346,16 @@
         <v>47</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="E54" s="67" t="s">
         <v>34</v>
       </c>
       <c r="H54" s="11" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="I54" s="67" t="s">
-        <v>1022</v>
+        <v>1013</v>
       </c>
       <c r="J54" s="67"/>
       <c r="K54" s="1" t="s">
@@ -29356,16 +29365,16 @@
         <v>26</v>
       </c>
       <c r="M54" s="1" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="N54" s="2" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="O54" s="2" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="R54" s="14" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
     </row>
     <row r="55" spans="1:18" ht="30" customHeight="1">
@@ -29373,13 +29382,13 @@
         <v>48</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="H55" s="11" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="I55" s="67" t="s">
-        <v>1023</v>
+        <v>1014</v>
       </c>
       <c r="J55" s="67"/>
       <c r="K55" s="1" t="s">
@@ -29389,16 +29398,16 @@
         <v>26</v>
       </c>
       <c r="M55" s="1" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="N55" s="2" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="O55" s="2" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="R55" s="14" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
     </row>
     <row r="56" spans="1:18" ht="30" customHeight="1">
@@ -29406,16 +29415,16 @@
         <v>49</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="H56" s="11" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="I56" s="67" t="s">
-        <v>1024</v>
+        <v>1015</v>
       </c>
       <c r="J56" s="67" t="s">
-        <v>1049</v>
+        <v>1040</v>
       </c>
       <c r="K56" s="1" t="s">
         <v>500</v>
@@ -29424,16 +29433,16 @@
         <v>26</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="N56" s="2" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="O56" s="2" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="R56" s="14" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
     </row>
     <row r="57" spans="1:18" ht="30" customHeight="1">
@@ -29441,7 +29450,7 @@
         <v>50</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="H57" s="13"/>
       <c r="I57" s="67"/>
@@ -29453,16 +29462,16 @@
         <v>26</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="N57" s="2" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="O57" s="2" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="R57" s="14" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
     </row>
     <row r="58" spans="1:18" ht="30" customHeight="1">
@@ -29470,7 +29479,7 @@
         <v>51</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="H58" s="13"/>
       <c r="I58" s="67"/>
@@ -29482,16 +29491,16 @@
         <v>26</v>
       </c>
       <c r="M58" s="1" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="N58" s="2" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="O58" s="2" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="R58" s="14" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
     </row>
     <row r="59" spans="1:18" ht="30" customHeight="1">
@@ -29499,16 +29508,16 @@
         <v>52</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="H59" s="11" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="I59" s="67" t="s">
-        <v>1025</v>
+        <v>1016</v>
       </c>
       <c r="J59" s="67" t="s">
-        <v>1050</v>
+        <v>1041</v>
       </c>
       <c r="K59" s="1" t="s">
         <v>500</v>
@@ -29517,16 +29526,16 @@
         <v>26</v>
       </c>
       <c r="M59" s="1" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="N59" s="2" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="O59" s="2" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="R59" s="14" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
     </row>
     <row r="60" spans="1:18" ht="30" customHeight="1">
@@ -29534,13 +29543,13 @@
         <v>53</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="H60" s="11" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="I60" s="67" t="s">
-        <v>1026</v>
+        <v>1017</v>
       </c>
       <c r="K60" s="1" t="s">
         <v>500</v>
@@ -29549,16 +29558,16 @@
         <v>26</v>
       </c>
       <c r="M60" s="1" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="N60" s="2" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="O60" s="2" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="R60" s="14" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
     </row>
     <row r="61" spans="1:18" ht="30" customHeight="1">
@@ -29566,7 +29575,7 @@
         <v>54</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="H61" s="13"/>
       <c r="I61" s="67"/>
@@ -29577,16 +29586,16 @@
         <v>26</v>
       </c>
       <c r="M61" s="1" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="N61" s="2" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="O61" s="2" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="R61" s="14" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
     </row>
     <row r="62" spans="1:18" ht="30" customHeight="1">
@@ -29594,13 +29603,13 @@
         <v>55</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="H62" s="11" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="I62" s="67" t="s">
-        <v>1027</v>
+        <v>1018</v>
       </c>
       <c r="K62" s="1" t="s">
         <v>500</v>
@@ -29609,16 +29618,16 @@
         <v>26</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="N62" s="2" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="O62" s="2" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="R62" s="14" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
     </row>
     <row r="63" spans="1:18" ht="30" customHeight="1">
@@ -29626,10 +29635,10 @@
         <v>56</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="H63" s="11" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="I63" s="67"/>
       <c r="K63" s="1" t="s">
@@ -29639,16 +29648,16 @@
         <v>26</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="N63" s="2" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="O63" s="2" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="R63" s="14" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
     </row>
     <row r="64" spans="1:18" ht="30" customHeight="1">
@@ -29656,7 +29665,7 @@
         <v>57</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="H64" s="13"/>
       <c r="I64" s="67"/>
@@ -29667,16 +29676,16 @@
         <v>26</v>
       </c>
       <c r="M64" s="1" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="N64" s="2" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="O64" s="2" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="R64" s="14" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
     </row>
     <row r="65" spans="1:18" ht="30" customHeight="1">
@@ -29684,13 +29693,13 @@
         <v>58</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="H65" s="10" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="I65" s="67" t="s">
-        <v>1028</v>
+        <v>1019</v>
       </c>
       <c r="K65" s="1" t="s">
         <v>500</v>
@@ -29699,16 +29708,16 @@
         <v>26</v>
       </c>
       <c r="M65" s="1" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="N65" s="2" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="O65" s="2" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="R65" s="14" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
     </row>
     <row r="66" spans="1:18" ht="30" customHeight="1">
@@ -29716,13 +29725,13 @@
         <v>59</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="H66" s="10" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="I66" s="67" t="s">
-        <v>1029</v>
+        <v>1020</v>
       </c>
       <c r="K66" s="1" t="s">
         <v>500</v>
@@ -29731,16 +29740,16 @@
         <v>26</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="N66" s="2" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="O66" s="2" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="R66" s="14" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
     </row>
     <row r="67" spans="1:18" ht="30" customHeight="1">
@@ -29748,13 +29757,13 @@
         <v>60</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="H67" s="10" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="I67" s="67" t="s">
-        <v>928</v>
+        <v>919</v>
       </c>
       <c r="K67" s="1" t="s">
         <v>500</v>
@@ -29763,16 +29772,16 @@
         <v>26</v>
       </c>
       <c r="M67" s="1" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="N67" s="2" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="O67" s="2" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="R67" s="14" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
     </row>
     <row r="68" spans="1:18" ht="30" customHeight="1">
@@ -29780,13 +29789,13 @@
         <v>61</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="H68" s="10" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="I68" s="67" t="s">
-        <v>1030</v>
+        <v>1021</v>
       </c>
       <c r="K68" s="1" t="s">
         <v>500</v>
@@ -29795,16 +29804,16 @@
         <v>26</v>
       </c>
       <c r="M68" s="1" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="N68" s="2" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="O68" s="2" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="R68" s="14" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
     </row>
     <row r="69" spans="1:18" ht="30" customHeight="1">
@@ -29812,13 +29821,13 @@
         <v>62</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="H69" s="10" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="I69" s="67" t="s">
-        <v>1031</v>
+        <v>1022</v>
       </c>
       <c r="K69" s="1" t="s">
         <v>500</v>
@@ -29827,16 +29836,16 @@
         <v>26</v>
       </c>
       <c r="M69" s="1" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="N69" s="2" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="O69" s="2" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="R69" s="14" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
     </row>
     <row r="70" spans="1:18" ht="30" customHeight="1">
@@ -29844,10 +29853,10 @@
         <v>63</v>
       </c>
       <c r="B70" s="15" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="H70" s="15" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="I70" s="61"/>
       <c r="K70" s="1" t="s">
@@ -29857,16 +29866,16 @@
         <v>26</v>
       </c>
       <c r="M70" s="1" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="N70" s="2" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="O70" s="2" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="R70" s="14" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
     </row>
     <row r="71" spans="1:18" ht="30" customHeight="1">
@@ -29874,10 +29883,10 @@
         <v>64</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="H71" s="11" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="I71" s="62"/>
       <c r="K71" s="1" t="s">
@@ -29887,16 +29896,16 @@
         <v>26</v>
       </c>
       <c r="M71" s="1" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="N71" s="2" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="O71" s="2" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="R71" s="14" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
     </row>
     <row r="72" spans="1:18" ht="30" customHeight="1">
@@ -29904,10 +29913,10 @@
         <v>65</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="H72" s="11" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="I72" s="62"/>
       <c r="K72" s="1" t="s">
@@ -29917,16 +29926,16 @@
         <v>26</v>
       </c>
       <c r="M72" s="1" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="N72" s="2" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="O72" s="2" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="R72" s="14" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
     </row>
     <row r="73" spans="1:18" ht="30" customHeight="1">
@@ -29934,10 +29943,10 @@
         <v>66</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="H73" s="11" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="I73" s="62"/>
       <c r="K73" s="1" t="s">
@@ -29947,16 +29956,16 @@
         <v>26</v>
       </c>
       <c r="M73" s="1" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="N73" s="2" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="O73" s="2" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="R73" s="14" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
     </row>
     <row r="74" spans="1:18" ht="30" customHeight="1">
@@ -29964,10 +29973,10 @@
         <v>67</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="H74" s="11" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="I74" s="62"/>
       <c r="K74" s="1" t="s">
@@ -29977,16 +29986,16 @@
         <v>26</v>
       </c>
       <c r="M74" s="1" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="N74" s="2" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="O74" s="2" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="R74" s="14" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
     </row>
     <row r="75" spans="1:18" ht="30" customHeight="1">
@@ -29994,7 +30003,7 @@
         <v>68</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="H75" s="13"/>
       <c r="I75" s="63"/>
@@ -30005,16 +30014,16 @@
         <v>26</v>
       </c>
       <c r="M75" s="1" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="N75" s="2" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="O75" s="2" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="R75" s="14" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
     </row>
     <row r="76" spans="1:18" ht="30" customHeight="1">
@@ -30022,7 +30031,7 @@
         <v>69</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="H76" s="13"/>
       <c r="I76" s="63"/>
@@ -30033,16 +30042,16 @@
         <v>26</v>
       </c>
       <c r="M76" s="1" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="N76" s="2" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="O76" s="2" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="R76" s="14" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
     </row>
     <row r="77" spans="1:18" ht="30" customHeight="1">
@@ -30050,10 +30059,10 @@
         <v>70</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="H77" s="11" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="I77" s="62"/>
       <c r="K77" s="1" t="s">
@@ -30063,16 +30072,16 @@
         <v>26</v>
       </c>
       <c r="M77" s="1" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="N77" s="2" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="O77" s="2" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="R77" s="14" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
     </row>
     <row r="78" spans="1:18" ht="30" customHeight="1">
@@ -30080,10 +30089,10 @@
         <v>71</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="H78" s="11" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="I78" s="62"/>
       <c r="K78" s="1" t="s">
@@ -30093,16 +30102,16 @@
         <v>26</v>
       </c>
       <c r="M78" s="1" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="N78" s="2" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="O78" s="2" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="R78" s="14" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
     </row>
     <row r="79" spans="1:18" ht="30" customHeight="1">
@@ -30110,10 +30119,10 @@
         <v>72</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="H79" s="11" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="I79" s="62"/>
       <c r="K79" s="1" t="s">
@@ -30123,16 +30132,16 @@
         <v>26</v>
       </c>
       <c r="M79" s="1" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="N79" s="2" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="O79" s="2" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="R79" s="14" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
     </row>
     <row r="80" spans="1:18" ht="30" customHeight="1">
@@ -30140,10 +30149,10 @@
         <v>73</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="H80" s="11" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="I80" s="62"/>
       <c r="K80" s="1" t="s">
@@ -30153,16 +30162,16 @@
         <v>26</v>
       </c>
       <c r="M80" s="1" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="N80" s="2" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="O80" s="2" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="R80" s="14" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
     </row>
     <row r="81" spans="1:18" ht="30" customHeight="1">
@@ -30170,10 +30179,10 @@
         <v>74</v>
       </c>
       <c r="B81" s="16" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="H81" s="17" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="I81" s="64"/>
       <c r="K81" s="1" t="s">
@@ -30183,16 +30192,16 @@
         <v>26</v>
       </c>
       <c r="M81" s="1" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="N81" s="2" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="O81" s="2" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="R81" s="14" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
     </row>
     <row r="82" spans="1:18" ht="30" customHeight="1">
@@ -30200,10 +30209,10 @@
         <v>75</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="H82" s="11" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="I82" s="62"/>
       <c r="K82" s="1" t="s">
@@ -30213,16 +30222,16 @@
         <v>26</v>
       </c>
       <c r="M82" s="1" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="N82" s="2" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="O82" s="2" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="R82" s="14" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
     </row>
     <row r="83" spans="1:18" ht="30" customHeight="1">
@@ -30230,10 +30239,10 @@
         <v>76</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="H83" s="11" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="I83" s="62"/>
       <c r="K83" s="1" t="s">
@@ -30243,16 +30252,16 @@
         <v>26</v>
       </c>
       <c r="M83" s="1" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="N83" s="2" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="O83" s="2" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="R83" s="14" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
     </row>
     <row r="84" spans="1:18" ht="30" customHeight="1">
@@ -30260,10 +30269,10 @@
         <v>77</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="H84" s="11" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="I84" s="62"/>
       <c r="K84" s="1" t="s">
@@ -30273,16 +30282,16 @@
         <v>26</v>
       </c>
       <c r="M84" s="1" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="N84" s="2" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="O84" s="2" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="R84" s="14" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
     </row>
     <row r="85" spans="1:18" ht="30" customHeight="1">
@@ -30290,13 +30299,13 @@
         <v>78</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="H85" s="11" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="I85" t="s">
-        <v>909</v>
+        <v>900</v>
       </c>
       <c r="K85" s="1" t="s">
         <v>500</v>
@@ -30305,16 +30314,16 @@
         <v>26</v>
       </c>
       <c r="M85" s="1" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="N85" s="2" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="O85" s="2" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="R85" s="14" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
     </row>
     <row r="86" spans="1:18" ht="30" customHeight="1">
@@ -30322,13 +30331,13 @@
         <v>79</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="H86" s="11" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="I86" t="s">
-        <v>910</v>
+        <v>901</v>
       </c>
       <c r="K86" s="1" t="s">
         <v>500</v>
@@ -30337,16 +30346,16 @@
         <v>26</v>
       </c>
       <c r="M86" s="1" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="N86" s="2" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="O86" s="2" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="R86" s="14" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
     </row>
     <row r="87" spans="1:18" ht="30" customHeight="1">
@@ -30354,13 +30363,13 @@
         <v>80</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="H87" s="11" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="I87" t="s">
-        <v>911</v>
+        <v>902</v>
       </c>
       <c r="K87" s="1" t="s">
         <v>500</v>
@@ -30369,16 +30378,16 @@
         <v>26</v>
       </c>
       <c r="M87" s="1" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="N87" s="2" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="O87" s="2" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="R87" s="14" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
     </row>
     <row r="88" spans="1:18" ht="30" customHeight="1">
@@ -30386,13 +30395,13 @@
         <v>81</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="H88" s="11" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="I88" t="s">
-        <v>912</v>
+        <v>903</v>
       </c>
       <c r="K88" s="1" t="s">
         <v>500</v>
@@ -30401,16 +30410,16 @@
         <v>26</v>
       </c>
       <c r="M88" s="1" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="N88" s="2" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="O88" s="2" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="R88" s="14" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
     </row>
     <row r="89" spans="1:18" ht="30" customHeight="1">
@@ -30418,13 +30427,13 @@
         <v>82</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="H89" s="11" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="I89" t="s">
-        <v>913</v>
+        <v>904</v>
       </c>
       <c r="K89" s="1" t="s">
         <v>500</v>
@@ -30433,16 +30442,16 @@
         <v>26</v>
       </c>
       <c r="M89" s="1" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="N89" s="2" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="O89" s="2" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="R89" s="14" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
     </row>
     <row r="90" spans="1:18" ht="30" customHeight="1">
@@ -30450,13 +30459,13 @@
         <v>83</v>
       </c>
       <c r="B90" s="18" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="H90" s="18" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="I90" t="s">
-        <v>914</v>
+        <v>905</v>
       </c>
       <c r="K90" s="1" t="s">
         <v>500</v>
@@ -30465,16 +30474,16 @@
         <v>26</v>
       </c>
       <c r="M90" s="1" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="N90" s="2" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="O90" s="2" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="R90" s="14" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
     </row>
     <row r="91" spans="1:18" ht="30" customHeight="1">
@@ -30482,13 +30491,13 @@
         <v>84</v>
       </c>
       <c r="B91" s="18" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="H91" s="18" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="I91" t="s">
-        <v>915</v>
+        <v>906</v>
       </c>
       <c r="K91" s="1" t="s">
         <v>500</v>
@@ -30497,16 +30506,16 @@
         <v>26</v>
       </c>
       <c r="M91" s="1" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="N91" s="2" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="O91" s="2" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="R91" s="14" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
     </row>
     <row r="92" spans="1:18" ht="30" customHeight="1">
@@ -30514,13 +30523,13 @@
         <v>85</v>
       </c>
       <c r="B92" s="18" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="H92" s="18" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="I92" t="s">
-        <v>916</v>
+        <v>907</v>
       </c>
       <c r="K92" s="1" t="s">
         <v>500</v>
@@ -30529,16 +30538,16 @@
         <v>26</v>
       </c>
       <c r="M92" s="1" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="N92" s="2" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="O92" s="2" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="R92" s="14" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
     </row>
     <row r="93" spans="1:18" ht="30" customHeight="1">
@@ -30546,7 +30555,7 @@
         <v>86</v>
       </c>
       <c r="B93" s="19" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="H93" s="13"/>
       <c r="I93"/>
@@ -30557,16 +30566,16 @@
         <v>26</v>
       </c>
       <c r="M93" s="1" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="N93" s="2" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="O93" s="2" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="R93" s="14" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
     </row>
     <row r="94" spans="1:18" ht="30" customHeight="1">
@@ -30574,7 +30583,7 @@
         <v>87</v>
       </c>
       <c r="B94" s="19" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="H94" s="13"/>
       <c r="I94"/>
@@ -30585,16 +30594,16 @@
         <v>26</v>
       </c>
       <c r="M94" s="1" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="N94" s="2" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="O94" s="2" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="R94" s="14" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
     </row>
     <row r="95" spans="1:18" ht="30" customHeight="1">
@@ -30602,13 +30611,13 @@
         <v>88</v>
       </c>
       <c r="B95" s="19" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="H95" s="11" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="I95" t="s">
-        <v>917</v>
+        <v>908</v>
       </c>
       <c r="K95" s="1" t="s">
         <v>500</v>
@@ -30617,16 +30626,16 @@
         <v>26</v>
       </c>
       <c r="M95" s="1" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="N95" s="2" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="O95" s="2" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="R95" s="14" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
     </row>
     <row r="96" spans="1:18" ht="30" customHeight="1">
@@ -30634,13 +30643,13 @@
         <v>89</v>
       </c>
       <c r="B96" s="19" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="H96" s="20" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="I96" t="s">
-        <v>918</v>
+        <v>909</v>
       </c>
       <c r="K96" s="1" t="s">
         <v>500</v>
@@ -30649,16 +30658,16 @@
         <v>26</v>
       </c>
       <c r="M96" s="1" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="N96" s="2" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="O96" s="2" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="R96" s="14" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
     </row>
     <row r="97" spans="1:18" ht="30" customHeight="1">
@@ -30666,13 +30675,13 @@
         <v>90</v>
       </c>
       <c r="B97" s="19" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="H97" s="11" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="I97" t="s">
-        <v>919</v>
+        <v>910</v>
       </c>
       <c r="K97" s="1" t="s">
         <v>500</v>
@@ -30681,16 +30690,16 @@
         <v>26</v>
       </c>
       <c r="M97" s="1" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="N97" s="2" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="O97" s="2" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="R97" s="14" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
     </row>
     <row r="98" spans="1:18" ht="30" customHeight="1">
@@ -30698,13 +30707,13 @@
         <v>91</v>
       </c>
       <c r="B98" s="19" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="H98" s="11" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="I98" t="s">
-        <v>920</v>
+        <v>911</v>
       </c>
       <c r="K98" s="1" t="s">
         <v>500</v>
@@ -30713,16 +30722,16 @@
         <v>26</v>
       </c>
       <c r="M98" s="1" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="N98" s="2" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="O98" s="2" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="R98" s="14" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
     </row>
     <row r="99" spans="1:18" ht="30" customHeight="1">
@@ -30730,13 +30739,13 @@
         <v>92</v>
       </c>
       <c r="B99" s="19" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="H99" s="11" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="I99" t="s">
-        <v>921</v>
+        <v>912</v>
       </c>
       <c r="K99" s="1" t="s">
         <v>500</v>
@@ -30745,16 +30754,16 @@
         <v>26</v>
       </c>
       <c r="M99" s="1" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="N99" s="2" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="O99" s="2" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="R99" s="14" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
     </row>
     <row r="100" spans="1:18" ht="30" customHeight="1">
@@ -30762,7 +30771,7 @@
         <v>93</v>
       </c>
       <c r="B100" s="19" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="H100" s="13"/>
       <c r="I100"/>
@@ -30773,16 +30782,16 @@
         <v>26</v>
       </c>
       <c r="M100" s="1" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="N100" s="2" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="O100" s="2" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="R100" s="14" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
     </row>
     <row r="101" spans="1:18" ht="30" customHeight="1">
@@ -30790,7 +30799,7 @@
         <v>94</v>
       </c>
       <c r="B101" s="19" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="H101" s="13"/>
       <c r="I101"/>
@@ -30801,16 +30810,16 @@
         <v>26</v>
       </c>
       <c r="M101" s="1" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="N101" s="2" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="O101" s="2" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="R101" s="14" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
     </row>
     <row r="102" spans="1:18" ht="30" customHeight="1">
@@ -30818,13 +30827,13 @@
         <v>95</v>
       </c>
       <c r="B102" s="19" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="H102" s="11" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="I102" t="s">
-        <v>922</v>
+        <v>913</v>
       </c>
       <c r="K102" s="1" t="s">
         <v>500</v>
@@ -30833,16 +30842,16 @@
         <v>26</v>
       </c>
       <c r="M102" s="1" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="N102" s="2" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="O102" s="2" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="R102" s="14" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
     </row>
     <row r="103" spans="1:18" ht="30" customHeight="1">
@@ -30850,13 +30859,13 @@
         <v>96</v>
       </c>
       <c r="B103" s="19" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="H103" s="11" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="I103" t="s">
-        <v>923</v>
+        <v>914</v>
       </c>
       <c r="K103" s="1" t="s">
         <v>500</v>
@@ -30865,16 +30874,16 @@
         <v>26</v>
       </c>
       <c r="M103" s="1" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="N103" s="2" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="O103" s="2" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="R103" s="14" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
     </row>
     <row r="104" spans="1:18" ht="30" customHeight="1">
@@ -30882,13 +30891,13 @@
         <v>97</v>
       </c>
       <c r="B104" s="19" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="H104" s="11" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="I104" t="s">
-        <v>924</v>
+        <v>915</v>
       </c>
       <c r="K104" s="1" t="s">
         <v>500</v>
@@ -30897,16 +30906,16 @@
         <v>26</v>
       </c>
       <c r="M104" s="1" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="N104" s="2" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="O104" s="2" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="R104" s="14" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
     </row>
     <row r="105" spans="1:18" ht="30" customHeight="1">
@@ -30914,13 +30923,13 @@
         <v>98</v>
       </c>
       <c r="B105" s="19" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="H105" s="11" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="I105" t="s">
-        <v>925</v>
+        <v>916</v>
       </c>
       <c r="K105" s="1" t="s">
         <v>500</v>
@@ -30929,16 +30938,16 @@
         <v>26</v>
       </c>
       <c r="M105" s="1" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="N105" s="2" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="O105" s="2" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="R105" s="14" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
     </row>
     <row r="106" spans="1:18" ht="30" customHeight="1">
@@ -30946,7 +30955,7 @@
         <v>99</v>
       </c>
       <c r="B106" s="21" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="H106" s="13"/>
       <c r="I106"/>
@@ -30957,16 +30966,16 @@
         <v>26</v>
       </c>
       <c r="M106" s="1" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="N106" s="2" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="O106" s="2" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="R106" s="14" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
     </row>
     <row r="107" spans="1:18" ht="30" customHeight="1">
@@ -30974,13 +30983,13 @@
         <v>100</v>
       </c>
       <c r="B107" s="19" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="H107" s="11" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="I107" t="s">
-        <v>926</v>
+        <v>917</v>
       </c>
       <c r="K107" s="1" t="s">
         <v>500</v>
@@ -30989,16 +30998,16 @@
         <v>26</v>
       </c>
       <c r="M107" s="1" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="N107" s="2" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="O107" s="2" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="R107" s="14" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
     </row>
     <row r="108" spans="1:18" ht="30" customHeight="1">
@@ -31006,13 +31015,13 @@
         <v>101</v>
       </c>
       <c r="B108" s="19" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="H108" s="11" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="I108" t="s">
-        <v>927</v>
+        <v>918</v>
       </c>
       <c r="K108" s="1" t="s">
         <v>500</v>
@@ -31021,16 +31030,16 @@
         <v>26</v>
       </c>
       <c r="M108" s="1" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="N108" s="2" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="O108" s="2" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="R108" s="14" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
     </row>
     <row r="109" spans="1:18" ht="30" customHeight="1">
@@ -31038,7 +31047,7 @@
         <v>102</v>
       </c>
       <c r="B109" s="19" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="I109"/>
       <c r="K109" s="1" t="s">
@@ -31048,16 +31057,16 @@
         <v>26</v>
       </c>
       <c r="M109" s="1" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="N109" s="2" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="O109" s="2" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="R109" s="14" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
     </row>
     <row r="110" spans="1:18" ht="30" customHeight="1">
@@ -31065,13 +31074,13 @@
         <v>103</v>
       </c>
       <c r="B110" s="22" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="H110" s="18" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="I110" t="s">
-        <v>928</v>
+        <v>919</v>
       </c>
       <c r="K110" s="1" t="s">
         <v>500</v>
@@ -31080,16 +31089,16 @@
         <v>26</v>
       </c>
       <c r="M110" s="1" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="N110" s="2" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="O110" s="2" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="R110" s="14" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
     </row>
     <row r="111" spans="1:18" ht="30" customHeight="1">
@@ -31097,13 +31106,13 @@
         <v>104</v>
       </c>
       <c r="B111" s="19" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="H111" s="11" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="I111" t="s">
-        <v>929</v>
+        <v>920</v>
       </c>
       <c r="K111" s="1" t="s">
         <v>500</v>
@@ -31112,16 +31121,16 @@
         <v>26</v>
       </c>
       <c r="M111" s="1" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="N111" s="2" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="O111" s="2" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="R111" s="14" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
     </row>
     <row r="112" spans="1:18" ht="30" customHeight="1">
@@ -31129,13 +31138,13 @@
         <v>105</v>
       </c>
       <c r="B112" s="23" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="H112" s="24" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="I112" t="s">
-        <v>930</v>
+        <v>921</v>
       </c>
       <c r="K112" s="1" t="s">
         <v>500</v>
@@ -31144,16 +31153,16 @@
         <v>26</v>
       </c>
       <c r="M112" s="1" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="N112" s="2" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="O112" s="2" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="R112" s="14" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
     </row>
     <row r="113" spans="1:18" ht="30" customHeight="1">
@@ -31161,13 +31170,13 @@
         <v>106</v>
       </c>
       <c r="B113" s="19" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="H113" s="11" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="I113" t="s">
-        <v>931</v>
+        <v>922</v>
       </c>
       <c r="K113" s="1" t="s">
         <v>500</v>
@@ -31176,16 +31185,16 @@
         <v>26</v>
       </c>
       <c r="M113" s="1" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="N113" s="2" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="O113" s="2" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="R113" s="14" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
     </row>
     <row r="114" spans="1:18" ht="30" customHeight="1">
@@ -31193,13 +31202,13 @@
         <v>107</v>
       </c>
       <c r="B114" s="19" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="H114" s="11" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="I114" t="s">
-        <v>932</v>
+        <v>923</v>
       </c>
       <c r="K114" s="1" t="s">
         <v>500</v>
@@ -31208,16 +31217,16 @@
         <v>26</v>
       </c>
       <c r="M114" s="1" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="N114" s="2" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="O114" s="2" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="R114" s="14" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
     </row>
     <row r="115" spans="1:18" ht="30" customHeight="1">
@@ -31225,13 +31234,13 @@
         <v>108</v>
       </c>
       <c r="B115" s="19" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="H115" s="11" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="I115" t="s">
-        <v>933</v>
+        <v>924</v>
       </c>
       <c r="K115" s="1" t="s">
         <v>500</v>
@@ -31240,16 +31249,16 @@
         <v>26</v>
       </c>
       <c r="M115" s="1" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="N115" s="2" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="O115" s="2" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="R115" s="14" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
     </row>
     <row r="116" spans="1:18" ht="30" customHeight="1">
@@ -31257,13 +31266,13 @@
         <v>109</v>
       </c>
       <c r="B116" s="19" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="H116" s="11" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="I116" t="s">
-        <v>934</v>
+        <v>925</v>
       </c>
       <c r="K116" s="1" t="s">
         <v>500</v>
@@ -31272,16 +31281,16 @@
         <v>26</v>
       </c>
       <c r="M116" s="1" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="N116" s="2" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="O116" s="2" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="R116" s="14" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
     </row>
     <row r="117" spans="1:18" ht="30" customHeight="1">
@@ -31289,13 +31298,13 @@
         <v>110</v>
       </c>
       <c r="B117" s="19" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="H117" s="11" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="I117" t="s">
-        <v>935</v>
+        <v>926</v>
       </c>
       <c r="K117" s="1" t="s">
         <v>500</v>
@@ -31304,16 +31313,16 @@
         <v>26</v>
       </c>
       <c r="M117" s="1" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="N117" s="2" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="O117" s="2" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="R117" s="14" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
     </row>
     <row r="118" spans="1:18" ht="30" customHeight="1">
@@ -31321,13 +31330,13 @@
         <v>111</v>
       </c>
       <c r="B118" s="19" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="H118" s="11" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="I118" t="s">
-        <v>936</v>
+        <v>927</v>
       </c>
       <c r="K118" s="1" t="s">
         <v>500</v>
@@ -31336,16 +31345,16 @@
         <v>26</v>
       </c>
       <c r="M118" s="1" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="N118" s="2" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="O118" s="2" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="R118" s="14" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
     </row>
     <row r="119" spans="1:18" ht="30" customHeight="1">
@@ -31353,7 +31362,7 @@
         <v>112</v>
       </c>
       <c r="B119" s="23" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="H119" s="25"/>
       <c r="I119"/>
@@ -31364,16 +31373,16 @@
         <v>26</v>
       </c>
       <c r="M119" s="1" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="N119" s="2" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="O119" s="2" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="R119" s="14" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
     </row>
     <row r="120" spans="1:18" ht="30" customHeight="1">
@@ -31381,7 +31390,7 @@
         <v>113</v>
       </c>
       <c r="B120" s="23" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="H120" s="25"/>
       <c r="I120"/>
@@ -31392,16 +31401,16 @@
         <v>26</v>
       </c>
       <c r="M120" s="1" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="N120" s="2" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="O120" s="2" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="R120" s="14" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
     </row>
     <row r="121" spans="1:18" ht="30" customHeight="1">
@@ -31409,7 +31418,7 @@
         <v>114</v>
       </c>
       <c r="B121" s="19" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="H121" s="13"/>
       <c r="I121"/>
@@ -31420,16 +31429,16 @@
         <v>26</v>
       </c>
       <c r="M121" s="1" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="N121" s="2" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="O121" s="2" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="R121" s="14" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
     </row>
     <row r="122" spans="1:18" ht="30" customHeight="1">
@@ -31437,13 +31446,13 @@
         <v>115</v>
       </c>
       <c r="B122" s="19" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="H122" s="11" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="I122" t="s">
-        <v>937</v>
+        <v>928</v>
       </c>
       <c r="K122" s="1" t="s">
         <v>500</v>
@@ -31452,16 +31461,16 @@
         <v>26</v>
       </c>
       <c r="M122" s="1" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="N122" s="2" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="O122" s="2" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="R122" s="14" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
     </row>
     <row r="123" spans="1:18" ht="30" customHeight="1">
@@ -31469,13 +31478,13 @@
         <v>116</v>
       </c>
       <c r="B123" s="19" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="H123" s="11" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="I123" t="s">
-        <v>938</v>
+        <v>929</v>
       </c>
       <c r="K123" s="1" t="s">
         <v>500</v>
@@ -31484,16 +31493,16 @@
         <v>26</v>
       </c>
       <c r="M123" s="1" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="N123" s="2" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="O123" s="2" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="R123" s="14" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
     </row>
     <row r="124" spans="1:18" ht="30" customHeight="1">
@@ -31501,13 +31510,13 @@
         <v>117</v>
       </c>
       <c r="B124" s="19" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="H124" s="11" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="I124" t="s">
-        <v>939</v>
+        <v>930</v>
       </c>
       <c r="K124" s="1" t="s">
         <v>500</v>
@@ -31516,16 +31525,16 @@
         <v>26</v>
       </c>
       <c r="M124" s="1" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="N124" s="2" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="O124" s="2" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="R124" s="14" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
     </row>
     <row r="125" spans="1:18" ht="30" customHeight="1">
@@ -31533,13 +31542,13 @@
         <v>118</v>
       </c>
       <c r="B125" s="26" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="H125" s="26" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="I125" t="s">
-        <v>940</v>
+        <v>931</v>
       </c>
       <c r="K125" s="1" t="s">
         <v>500</v>
@@ -31548,16 +31557,16 @@
         <v>26</v>
       </c>
       <c r="M125" s="1" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="N125" s="2" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="O125" s="2" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="R125" s="14" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
     </row>
     <row r="126" spans="1:18" ht="30" customHeight="1">
@@ -31565,13 +31574,13 @@
         <v>119</v>
       </c>
       <c r="B126" s="26" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="H126" s="26" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="I126" t="s">
-        <v>941</v>
+        <v>932</v>
       </c>
       <c r="K126" s="1" t="s">
         <v>500</v>
@@ -31580,16 +31589,16 @@
         <v>26</v>
       </c>
       <c r="M126" s="1" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="N126" s="2" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="O126" s="2" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="R126" s="14" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
     </row>
     <row r="127" spans="1:18" ht="30" customHeight="1">
@@ -31597,13 +31606,13 @@
         <v>120</v>
       </c>
       <c r="B127" s="27" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="H127" s="27" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="I127" t="s">
-        <v>933</v>
+        <v>924</v>
       </c>
       <c r="K127" s="1" t="s">
         <v>500</v>
@@ -31612,16 +31621,16 @@
         <v>26</v>
       </c>
       <c r="M127" s="1" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="N127" s="2" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="O127" s="2" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="R127" s="14" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
     </row>
     <row r="128" spans="1:18" ht="30" customHeight="1">
@@ -31629,13 +31638,13 @@
         <v>121</v>
       </c>
       <c r="B128" s="28" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="H128" s="11" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="I128" t="s">
-        <v>942</v>
+        <v>933</v>
       </c>
       <c r="K128" s="1" t="s">
         <v>500</v>
@@ -31644,16 +31653,16 @@
         <v>26</v>
       </c>
       <c r="M128" s="1" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="N128" s="2" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="O128" s="2" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="R128" s="14" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
     </row>
     <row r="129" spans="1:18" ht="30" customHeight="1">
@@ -31661,7 +31670,7 @@
         <v>122</v>
       </c>
       <c r="B129" s="19" t="s">
-        <v>805</v>
+        <v>1046</v>
       </c>
       <c r="H129" s="13"/>
       <c r="I129"/>
@@ -31672,16 +31681,16 @@
         <v>26</v>
       </c>
       <c r="M129" s="1" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="N129" s="2" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="O129" s="2" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="R129" s="14" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
     </row>
     <row r="130" spans="1:18" ht="30" customHeight="1">
@@ -31689,13 +31698,13 @@
         <v>123</v>
       </c>
       <c r="B130" s="21" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
       <c r="H130" s="11" t="s">
-        <v>807</v>
+        <v>802</v>
       </c>
       <c r="I130" t="s">
-        <v>943</v>
+        <v>934</v>
       </c>
       <c r="K130" s="1" t="s">
         <v>500</v>
@@ -31704,16 +31713,16 @@
         <v>26</v>
       </c>
       <c r="M130" s="1" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="N130" s="2" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="O130" s="2" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="R130" s="14" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
     </row>
     <row r="131" spans="1:18" ht="30" customHeight="1">
@@ -31721,13 +31730,13 @@
         <v>124</v>
       </c>
       <c r="B131" s="19" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="H131" s="20" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="I131" t="s">
-        <v>944</v>
+        <v>935</v>
       </c>
       <c r="K131" s="1" t="s">
         <v>500</v>
@@ -31736,16 +31745,16 @@
         <v>26</v>
       </c>
       <c r="M131" s="1" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="N131" s="2" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="O131" s="2" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="R131" s="14" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
     </row>
     <row r="132" spans="1:18" ht="30" customHeight="1">
@@ -31753,13 +31762,13 @@
         <v>125</v>
       </c>
       <c r="B132" s="19" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="H132" s="20" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
       <c r="I132" t="s">
-        <v>945</v>
+        <v>936</v>
       </c>
       <c r="K132" s="1" t="s">
         <v>500</v>
@@ -31768,16 +31777,16 @@
         <v>26</v>
       </c>
       <c r="M132" s="1" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="N132" s="2" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="O132" s="2" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="R132" s="14" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
     </row>
     <row r="133" spans="1:18" ht="30" customHeight="1">
@@ -31785,13 +31794,13 @@
         <v>126</v>
       </c>
       <c r="B133" s="19" t="s">
-        <v>812</v>
+        <v>807</v>
       </c>
       <c r="H133" s="11" t="s">
-        <v>813</v>
+        <v>808</v>
       </c>
       <c r="I133" t="s">
-        <v>941</v>
+        <v>932</v>
       </c>
       <c r="K133" s="1" t="s">
         <v>500</v>
@@ -31800,16 +31809,16 @@
         <v>26</v>
       </c>
       <c r="M133" s="1" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="N133" s="2" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="O133" s="2" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="R133" s="14" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
     </row>
     <row r="134" spans="1:18" ht="30" customHeight="1">
@@ -31817,13 +31826,13 @@
         <v>127</v>
       </c>
       <c r="B134" s="19" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="H134" s="11" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="I134" t="s">
-        <v>946</v>
+        <v>937</v>
       </c>
       <c r="K134" s="1" t="s">
         <v>500</v>
@@ -31832,16 +31841,16 @@
         <v>26</v>
       </c>
       <c r="M134" s="1" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="N134" s="2" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="O134" s="2" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="R134" s="14" t="s">
-        <v>798</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="135" spans="1:18" ht="30" customHeight="1">
@@ -31849,13 +31858,13 @@
         <v>128</v>
       </c>
       <c r="B135" s="19" t="s">
-        <v>816</v>
+        <v>811</v>
       </c>
       <c r="H135" s="11" t="s">
-        <v>817</v>
+        <v>812</v>
       </c>
       <c r="I135" t="s">
-        <v>947</v>
+        <v>938</v>
       </c>
       <c r="K135" s="1" t="s">
         <v>500</v>
@@ -31864,16 +31873,16 @@
         <v>26</v>
       </c>
       <c r="M135" s="1" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="N135" s="2" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="O135" s="2" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="R135" s="14" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
     </row>
     <row r="136" spans="1:18" ht="30" customHeight="1">
@@ -31881,7 +31890,7 @@
         <v>129</v>
       </c>
       <c r="B136" s="19" t="s">
-        <v>818</v>
+        <v>813</v>
       </c>
       <c r="H136" s="13"/>
       <c r="I136"/>
@@ -31892,16 +31901,16 @@
         <v>26</v>
       </c>
       <c r="M136" s="1" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="N136" s="2" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="O136" s="2" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="R136" s="14" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
     </row>
     <row r="137" spans="1:18" ht="30" customHeight="1">
@@ -31909,7 +31918,7 @@
         <v>130</v>
       </c>
       <c r="B137" s="19" t="s">
-        <v>819</v>
+        <v>814</v>
       </c>
       <c r="H137" s="13"/>
       <c r="I137"/>
@@ -31920,16 +31929,16 @@
         <v>26</v>
       </c>
       <c r="M137" s="1" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="N137" s="2" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="O137" s="2" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="R137" s="14" t="s">
-        <v>798</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="138" spans="1:18" ht="30" customHeight="1">
@@ -31937,13 +31946,13 @@
         <v>131</v>
       </c>
       <c r="B138" s="19" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
       <c r="H138" s="11" t="s">
-        <v>821</v>
+        <v>816</v>
       </c>
       <c r="I138" t="s">
-        <v>948</v>
+        <v>939</v>
       </c>
       <c r="K138" s="1" t="s">
         <v>500</v>
@@ -31952,16 +31961,16 @@
         <v>26</v>
       </c>
       <c r="M138" s="1" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="N138" s="2" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="O138" s="2" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="R138" s="14" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
     </row>
     <row r="139" spans="1:18" ht="30" customHeight="1">
@@ -31969,13 +31978,13 @@
         <v>132</v>
       </c>
       <c r="B139" s="19" t="s">
-        <v>822</v>
+        <v>817</v>
       </c>
       <c r="H139" s="11" t="s">
-        <v>823</v>
+        <v>818</v>
       </c>
       <c r="I139" t="s">
-        <v>949</v>
+        <v>940</v>
       </c>
       <c r="K139" s="1" t="s">
         <v>500</v>
@@ -31984,16 +31993,16 @@
         <v>26</v>
       </c>
       <c r="M139" s="1" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="N139" s="2" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="O139" s="2" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="R139" s="14" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
     </row>
     <row r="140" spans="1:18" ht="30" customHeight="1">
@@ -32001,13 +32010,13 @@
         <v>133</v>
       </c>
       <c r="B140" s="28" t="s">
-        <v>824</v>
+        <v>819</v>
       </c>
       <c r="H140" s="11" t="s">
-        <v>825</v>
+        <v>820</v>
       </c>
       <c r="I140" t="s">
-        <v>950</v>
+        <v>941</v>
       </c>
       <c r="K140" s="1" t="s">
         <v>500</v>
@@ -32016,16 +32025,16 @@
         <v>26</v>
       </c>
       <c r="M140" s="1" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="N140" s="2" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="O140" s="2" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="R140" s="14" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
     </row>
     <row r="141" spans="1:18" ht="30" customHeight="1">
@@ -32033,13 +32042,13 @@
         <v>134</v>
       </c>
       <c r="B141" s="19" t="s">
-        <v>826</v>
+        <v>821</v>
       </c>
       <c r="H141" s="11" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="I141" t="s">
-        <v>951</v>
+        <v>942</v>
       </c>
       <c r="K141" s="1" t="s">
         <v>500</v>
@@ -32048,16 +32057,16 @@
         <v>26</v>
       </c>
       <c r="M141" s="1" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="N141" s="2" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="O141" s="2" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="R141" s="14" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
     </row>
     <row r="142" spans="1:18" ht="30" customHeight="1">
@@ -32065,13 +32074,13 @@
         <v>135</v>
       </c>
       <c r="B142" s="19" t="s">
-        <v>828</v>
+        <v>823</v>
       </c>
       <c r="H142" s="20" t="s">
-        <v>829</v>
+        <v>824</v>
       </c>
       <c r="I142" t="s">
-        <v>952</v>
+        <v>943</v>
       </c>
       <c r="K142" s="1" t="s">
         <v>500</v>
@@ -32080,16 +32089,16 @@
         <v>26</v>
       </c>
       <c r="M142" s="1" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="N142" s="2" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="O142" s="2" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="R142" s="14" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
     </row>
     <row r="143" spans="1:18" ht="30" customHeight="1">
@@ -32097,7 +32106,7 @@
         <v>136</v>
       </c>
       <c r="B143" s="28" t="s">
-        <v>830</v>
+        <v>825</v>
       </c>
       <c r="H143" s="13"/>
       <c r="I143"/>
@@ -32108,16 +32117,16 @@
         <v>26</v>
       </c>
       <c r="M143" s="1" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="N143" s="2" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="O143" s="2" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="R143" s="14" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
     </row>
     <row r="144" spans="1:18" ht="30" customHeight="1">
@@ -32125,13 +32134,13 @@
         <v>137</v>
       </c>
       <c r="B144" s="28" t="s">
-        <v>831</v>
+        <v>826</v>
       </c>
       <c r="H144" s="11" t="s">
-        <v>832</v>
+        <v>827</v>
       </c>
       <c r="I144" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
       <c r="K144" s="1" t="s">
         <v>500</v>
@@ -32140,16 +32149,16 @@
         <v>26</v>
       </c>
       <c r="M144" s="1" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="N144" s="2" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="O144" s="2" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="R144" s="14" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
     </row>
     <row r="145" spans="1:18" ht="30" customHeight="1">
@@ -32157,13 +32166,13 @@
         <v>138</v>
       </c>
       <c r="B145" s="28" t="s">
-        <v>833</v>
+        <v>828</v>
       </c>
       <c r="H145" s="11" t="s">
-        <v>834</v>
+        <v>829</v>
       </c>
       <c r="I145" t="s">
-        <v>954</v>
+        <v>945</v>
       </c>
       <c r="K145" s="1" t="s">
         <v>500</v>
@@ -32172,16 +32181,16 @@
         <v>26</v>
       </c>
       <c r="M145" s="1" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="N145" s="2" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="O145" s="2" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="R145" s="14" t="s">
-        <v>798</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="146" spans="1:18" ht="30" customHeight="1">
@@ -32189,7 +32198,7 @@
         <v>139</v>
       </c>
       <c r="B146" s="19" t="s">
-        <v>835</v>
+        <v>830</v>
       </c>
       <c r="H146" s="13"/>
       <c r="I146"/>
@@ -32200,16 +32209,16 @@
         <v>26</v>
       </c>
       <c r="M146" s="1" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="N146" s="2" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="O146" s="2" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="R146" s="14" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
     </row>
     <row r="147" spans="1:18" ht="30" customHeight="1">
@@ -32217,13 +32226,13 @@
         <v>140</v>
       </c>
       <c r="B147" s="19" t="s">
-        <v>836</v>
+        <v>831</v>
       </c>
       <c r="H147" s="11" t="s">
-        <v>837</v>
+        <v>832</v>
       </c>
       <c r="I147" t="s">
-        <v>955</v>
+        <v>946</v>
       </c>
       <c r="K147" s="1" t="s">
         <v>500</v>
@@ -32232,16 +32241,16 @@
         <v>26</v>
       </c>
       <c r="M147" s="1" t="s">
-        <v>838</v>
+        <v>833</v>
       </c>
       <c r="N147" s="2" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="O147" s="2" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="R147" s="14" t="s">
-        <v>841</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="148" spans="1:18" ht="30" customHeight="1">
@@ -32249,13 +32258,13 @@
         <v>141</v>
       </c>
       <c r="B148" s="19" t="s">
-        <v>842</v>
+        <v>837</v>
       </c>
       <c r="H148" s="11" t="s">
-        <v>843</v>
+        <v>838</v>
       </c>
       <c r="I148" t="s">
-        <v>956</v>
+        <v>947</v>
       </c>
       <c r="K148" s="1" t="s">
         <v>500</v>
@@ -32264,16 +32273,16 @@
         <v>26</v>
       </c>
       <c r="M148" s="1" t="s">
-        <v>838</v>
+        <v>833</v>
       </c>
       <c r="N148" s="2" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="O148" s="2" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="R148" s="14" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
     </row>
     <row r="149" spans="1:18" ht="30" customHeight="1">
@@ -32281,13 +32290,13 @@
         <v>142</v>
       </c>
       <c r="B149" s="19" t="s">
-        <v>844</v>
+        <v>839</v>
       </c>
       <c r="H149" s="11" t="s">
-        <v>845</v>
+        <v>840</v>
       </c>
       <c r="I149" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="K149" s="1" t="s">
         <v>500</v>
@@ -32296,16 +32305,16 @@
         <v>26</v>
       </c>
       <c r="M149" s="1" t="s">
-        <v>838</v>
+        <v>833</v>
       </c>
       <c r="N149" s="2" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="O149" s="2" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="R149" s="14" t="s">
-        <v>841</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="150" spans="1:18" ht="30" customHeight="1">
@@ -32313,17 +32322,17 @@
         <v>143</v>
       </c>
       <c r="B150" s="19" t="s">
-        <v>846</v>
+        <v>841</v>
       </c>
       <c r="E150" s="67"/>
       <c r="H150" s="11" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
       <c r="I150" s="68" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="J150" s="67" t="s">
-        <v>982</v>
+        <v>973</v>
       </c>
       <c r="K150" s="1" t="s">
         <v>500</v>
@@ -32332,16 +32341,16 @@
         <v>26</v>
       </c>
       <c r="M150" s="1" t="s">
-        <v>838</v>
+        <v>833</v>
       </c>
       <c r="N150" s="2" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="O150" s="2" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="R150" s="14" t="s">
-        <v>841</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="151" spans="1:18" ht="30" customHeight="1">
@@ -32349,11 +32358,11 @@
         <v>144</v>
       </c>
       <c r="B151" s="23" t="s">
-        <v>848</v>
+        <v>843</v>
       </c>
       <c r="E151" s="67"/>
       <c r="H151" s="24" t="s">
-        <v>849</v>
+        <v>844</v>
       </c>
       <c r="I151" s="68"/>
       <c r="J151" s="67"/>
@@ -32364,16 +32373,16 @@
         <v>26</v>
       </c>
       <c r="M151" s="1" t="s">
-        <v>838</v>
+        <v>833</v>
       </c>
       <c r="N151" s="2" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="O151" s="2" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="R151" s="14" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
     </row>
     <row r="152" spans="1:18" ht="30" customHeight="1">
@@ -32381,17 +32390,17 @@
         <v>145</v>
       </c>
       <c r="B152" s="19" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
       <c r="E152" s="67"/>
       <c r="H152" s="66" t="s">
-        <v>958</v>
+        <v>949</v>
       </c>
       <c r="I152" s="68" t="s">
-        <v>960</v>
+        <v>951</v>
       </c>
       <c r="J152" s="67" t="s">
-        <v>983</v>
+        <v>974</v>
       </c>
       <c r="K152" s="1" t="s">
         <v>500</v>
@@ -32400,16 +32409,16 @@
         <v>26</v>
       </c>
       <c r="M152" s="1" t="s">
-        <v>838</v>
+        <v>833</v>
       </c>
       <c r="N152" s="2" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="O152" s="2" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="R152" s="14" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
     </row>
     <row r="153" spans="1:18" ht="30" customHeight="1">
@@ -32417,7 +32426,7 @@
         <v>146</v>
       </c>
       <c r="B153" s="19" t="s">
-        <v>851</v>
+        <v>846</v>
       </c>
       <c r="E153" s="67"/>
       <c r="H153" s="13"/>
@@ -32430,16 +32439,16 @@
         <v>26</v>
       </c>
       <c r="M153" s="1" t="s">
-        <v>838</v>
+        <v>833</v>
       </c>
       <c r="N153" s="2" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="O153" s="2" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="R153" s="14" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
     </row>
     <row r="154" spans="1:18" ht="30" customHeight="1">
@@ -32447,17 +32456,17 @@
         <v>147</v>
       </c>
       <c r="B154" s="19" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="E154" s="67"/>
       <c r="H154" s="11" t="s">
-        <v>853</v>
+        <v>848</v>
       </c>
       <c r="I154" s="68" t="s">
-        <v>961</v>
+        <v>952</v>
       </c>
       <c r="J154" s="67" t="s">
-        <v>984</v>
+        <v>975</v>
       </c>
       <c r="K154" s="1" t="s">
         <v>500</v>
@@ -32466,16 +32475,16 @@
         <v>26</v>
       </c>
       <c r="M154" s="1" t="s">
-        <v>838</v>
+        <v>833</v>
       </c>
       <c r="N154" s="2" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="O154" s="2" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="R154" s="14" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
     </row>
     <row r="155" spans="1:18" ht="30" customHeight="1">
@@ -32483,19 +32492,19 @@
         <v>148</v>
       </c>
       <c r="B155" s="7" t="s">
-        <v>854</v>
+        <v>849</v>
       </c>
       <c r="E155" s="67" t="s">
         <v>21</v>
       </c>
       <c r="H155" s="29" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="I155" s="68" t="s">
-        <v>962</v>
+        <v>953</v>
       </c>
       <c r="J155" s="67" t="s">
-        <v>985</v>
+        <v>976</v>
       </c>
       <c r="K155" s="1" t="s">
         <v>500</v>
@@ -32504,16 +32513,16 @@
         <v>26</v>
       </c>
       <c r="M155" s="1" t="s">
-        <v>838</v>
+        <v>833</v>
       </c>
       <c r="N155" s="2" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="O155" s="2" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="R155" s="14" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
     </row>
     <row r="156" spans="1:18" ht="30" customHeight="1">
@@ -32521,19 +32530,19 @@
         <v>149</v>
       </c>
       <c r="B156" s="7" t="s">
-        <v>857</v>
+        <v>852</v>
       </c>
       <c r="E156" s="67" t="s">
         <v>21</v>
       </c>
       <c r="H156" s="29" t="s">
-        <v>858</v>
+        <v>853</v>
       </c>
       <c r="I156" s="68" t="s">
-        <v>963</v>
+        <v>954</v>
       </c>
       <c r="J156" s="67" t="s">
-        <v>986</v>
+        <v>977</v>
       </c>
       <c r="K156" s="1" t="s">
         <v>500</v>
@@ -32542,16 +32551,16 @@
         <v>26</v>
       </c>
       <c r="M156" s="1" t="s">
-        <v>838</v>
+        <v>833</v>
       </c>
       <c r="N156" s="2" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="O156" s="2" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="R156" s="14" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
     </row>
     <row r="157" spans="1:18" ht="30" customHeight="1">
@@ -32559,17 +32568,17 @@
         <v>150</v>
       </c>
       <c r="B157" s="7" t="s">
-        <v>859</v>
+        <v>1043</v>
       </c>
       <c r="E157" s="67"/>
       <c r="H157" s="29" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="I157" s="69" t="s">
-        <v>964</v>
+        <v>955</v>
       </c>
       <c r="J157" s="67" t="s">
-        <v>987</v>
+        <v>978</v>
       </c>
       <c r="K157" s="1" t="s">
         <v>500</v>
@@ -32578,16 +32587,16 @@
         <v>26</v>
       </c>
       <c r="M157" s="1" t="s">
-        <v>838</v>
+        <v>833</v>
       </c>
       <c r="N157" s="2" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="O157" s="2" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="R157" s="14" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
     </row>
     <row r="158" spans="1:18" ht="30" customHeight="1">
@@ -32595,19 +32604,19 @@
         <v>151</v>
       </c>
       <c r="B158" s="7" t="s">
-        <v>861</v>
+        <v>1044</v>
       </c>
       <c r="E158" s="67" t="s">
         <v>34</v>
       </c>
       <c r="H158" s="29" t="s">
-        <v>862</v>
+        <v>855</v>
       </c>
       <c r="I158" s="68" t="s">
-        <v>965</v>
+        <v>956</v>
       </c>
       <c r="J158" s="67" t="s">
-        <v>988</v>
+        <v>979</v>
       </c>
       <c r="K158" s="1" t="s">
         <v>500</v>
@@ -32616,16 +32625,16 @@
         <v>26</v>
       </c>
       <c r="M158" s="1" t="s">
-        <v>838</v>
+        <v>833</v>
       </c>
       <c r="N158" s="2" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="O158" s="2" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="R158" s="14" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
     </row>
     <row r="159" spans="1:18" ht="30" customHeight="1">
@@ -32633,19 +32642,19 @@
         <v>152</v>
       </c>
       <c r="B159" s="7" t="s">
-        <v>863</v>
+        <v>856</v>
       </c>
       <c r="E159" s="67" t="s">
         <v>21</v>
       </c>
       <c r="H159" s="29" t="s">
-        <v>864</v>
+        <v>857</v>
       </c>
       <c r="I159" s="68" t="s">
-        <v>966</v>
+        <v>957</v>
       </c>
       <c r="J159" s="67" t="s">
-        <v>989</v>
+        <v>980</v>
       </c>
       <c r="K159" s="1" t="s">
         <v>500</v>
@@ -32654,16 +32663,16 @@
         <v>26</v>
       </c>
       <c r="M159" s="1" t="s">
-        <v>838</v>
+        <v>833</v>
       </c>
       <c r="N159" s="2" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="O159" s="2" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="R159" s="14" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
     </row>
     <row r="160" spans="1:18" ht="30" customHeight="1">
@@ -32671,19 +32680,19 @@
         <v>153</v>
       </c>
       <c r="B160" s="7" t="s">
-        <v>865</v>
+        <v>858</v>
       </c>
       <c r="E160" s="67" t="s">
-        <v>992</v>
+        <v>983</v>
       </c>
       <c r="H160" s="29" t="s">
-        <v>866</v>
+        <v>859</v>
       </c>
       <c r="I160" s="68" t="s">
-        <v>967</v>
+        <v>958</v>
       </c>
       <c r="J160" s="67" t="s">
-        <v>990</v>
+        <v>981</v>
       </c>
       <c r="K160" s="1" t="s">
         <v>500</v>
@@ -32692,16 +32701,16 @@
         <v>26</v>
       </c>
       <c r="M160" s="1" t="s">
-        <v>838</v>
+        <v>833</v>
       </c>
       <c r="N160" s="2" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="O160" s="2" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="R160" s="14" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
     </row>
     <row r="161" spans="1:18" ht="30" customHeight="1">
@@ -32709,19 +32718,19 @@
         <v>154</v>
       </c>
       <c r="B161" s="30" t="s">
-        <v>867</v>
+        <v>860</v>
       </c>
       <c r="E161" s="67" t="s">
         <v>21</v>
       </c>
       <c r="H161" s="11" t="s">
-        <v>868</v>
+        <v>861</v>
       </c>
       <c r="I161" s="68" t="s">
-        <v>968</v>
+        <v>959</v>
       </c>
       <c r="J161" s="67" t="s">
-        <v>991</v>
+        <v>982</v>
       </c>
       <c r="K161" s="1" t="s">
         <v>500</v>
@@ -32730,16 +32739,16 @@
         <v>26</v>
       </c>
       <c r="M161" s="1" t="s">
-        <v>869</v>
+        <v>862</v>
       </c>
       <c r="N161" s="2" t="s">
-        <v>870</v>
+        <v>863</v>
       </c>
       <c r="O161" s="2" t="s">
-        <v>871</v>
+        <v>864</v>
       </c>
       <c r="R161" s="14" t="s">
-        <v>872</v>
+        <v>865</v>
       </c>
     </row>
     <row r="162" spans="1:18" ht="30" customHeight="1">
@@ -32747,7 +32756,7 @@
         <v>155</v>
       </c>
       <c r="B162" s="7" t="s">
-        <v>873</v>
+        <v>866</v>
       </c>
       <c r="H162" s="13"/>
       <c r="I162" s="68"/>
@@ -32758,24 +32767,24 @@
         <v>26</v>
       </c>
       <c r="M162" s="1" t="s">
-        <v>869</v>
+        <v>862</v>
       </c>
       <c r="N162" s="2" t="s">
-        <v>870</v>
+        <v>863</v>
       </c>
       <c r="O162" s="2" t="s">
-        <v>871</v>
+        <v>864</v>
       </c>
       <c r="R162" s="14" t="s">
-        <v>872</v>
+        <v>865</v>
       </c>
     </row>
     <row r="163" spans="1:18" ht="30" customHeight="1">
       <c r="A163" s="1">
         <v>156</v>
       </c>
-      <c r="B163" s="12" t="s">
-        <v>874</v>
+      <c r="B163" s="8" t="s">
+        <v>1045</v>
       </c>
       <c r="H163" s="13"/>
       <c r="I163" s="68"/>
@@ -32786,16 +32795,16 @@
         <v>26</v>
       </c>
       <c r="M163" s="1" t="s">
-        <v>869</v>
+        <v>862</v>
       </c>
       <c r="N163" s="2" t="s">
-        <v>870</v>
+        <v>863</v>
       </c>
       <c r="O163" s="2" t="s">
-        <v>871</v>
+        <v>864</v>
       </c>
       <c r="R163" s="14" t="s">
-        <v>872</v>
+        <v>865</v>
       </c>
     </row>
     <row r="164" spans="1:18" ht="30" customHeight="1">
@@ -32803,7 +32812,7 @@
         <v>157</v>
       </c>
       <c r="B164" s="7" t="s">
-        <v>875</v>
+        <v>867</v>
       </c>
       <c r="H164" s="13"/>
       <c r="I164" s="68"/>
@@ -32814,16 +32823,16 @@
         <v>26</v>
       </c>
       <c r="M164" s="1" t="s">
-        <v>869</v>
+        <v>862</v>
       </c>
       <c r="N164" s="2" t="s">
-        <v>870</v>
+        <v>863</v>
       </c>
       <c r="O164" s="2" t="s">
-        <v>871</v>
+        <v>864</v>
       </c>
       <c r="R164" s="14" t="s">
-        <v>872</v>
+        <v>865</v>
       </c>
     </row>
     <row r="165" spans="1:18" ht="30" customHeight="1">
@@ -32831,7 +32840,7 @@
         <v>158</v>
       </c>
       <c r="B165" s="7" t="s">
-        <v>876</v>
+        <v>868</v>
       </c>
       <c r="H165" s="13"/>
       <c r="I165" s="68"/>
@@ -32842,16 +32851,16 @@
         <v>26</v>
       </c>
       <c r="M165" s="1" t="s">
-        <v>869</v>
+        <v>862</v>
       </c>
       <c r="N165" s="2" t="s">
-        <v>870</v>
+        <v>863</v>
       </c>
       <c r="O165" s="2" t="s">
-        <v>871</v>
+        <v>864</v>
       </c>
       <c r="R165" s="14" t="s">
-        <v>872</v>
+        <v>865</v>
       </c>
     </row>
     <row r="166" spans="1:18" ht="30" customHeight="1">
@@ -32859,17 +32868,17 @@
         <v>159</v>
       </c>
       <c r="B166" s="7" t="s">
-        <v>877</v>
+        <v>869</v>
       </c>
       <c r="E166" s="67"/>
       <c r="H166" s="11" t="s">
-        <v>878</v>
+        <v>870</v>
       </c>
       <c r="I166" s="68" t="s">
-        <v>969</v>
+        <v>960</v>
       </c>
       <c r="J166" s="67" t="s">
-        <v>993</v>
+        <v>984</v>
       </c>
       <c r="K166" s="1" t="s">
         <v>500</v>
@@ -32878,16 +32887,16 @@
         <v>26</v>
       </c>
       <c r="M166" s="1" t="s">
-        <v>869</v>
+        <v>862</v>
       </c>
       <c r="N166" s="2" t="s">
-        <v>870</v>
+        <v>863</v>
       </c>
       <c r="O166" s="2" t="s">
-        <v>871</v>
+        <v>864</v>
       </c>
       <c r="R166" s="14" t="s">
-        <v>872</v>
+        <v>865</v>
       </c>
     </row>
     <row r="167" spans="1:18" ht="30" customHeight="1">
@@ -32895,19 +32904,19 @@
         <v>160</v>
       </c>
       <c r="B167" s="7" t="s">
-        <v>879</v>
+        <v>871</v>
       </c>
       <c r="E167" s="67" t="s">
-        <v>992</v>
+        <v>983</v>
       </c>
       <c r="H167" s="31" t="s">
-        <v>880</v>
+        <v>872</v>
       </c>
       <c r="I167" s="68" t="s">
-        <v>970</v>
+        <v>961</v>
       </c>
       <c r="J167" s="67" t="s">
-        <v>994</v>
+        <v>985</v>
       </c>
       <c r="K167" s="1" t="s">
         <v>500</v>
@@ -32916,16 +32925,16 @@
         <v>26</v>
       </c>
       <c r="M167" s="1" t="s">
-        <v>869</v>
+        <v>862</v>
       </c>
       <c r="N167" s="2" t="s">
-        <v>870</v>
+        <v>863</v>
       </c>
       <c r="O167" s="2" t="s">
-        <v>871</v>
+        <v>864</v>
       </c>
       <c r="R167" s="14" t="s">
-        <v>872</v>
+        <v>865</v>
       </c>
     </row>
     <row r="168" spans="1:18" ht="30" customHeight="1">
@@ -32933,19 +32942,19 @@
         <v>161</v>
       </c>
       <c r="B168" s="7" t="s">
-        <v>881</v>
+        <v>873</v>
       </c>
       <c r="E168" s="67" t="s">
         <v>21</v>
       </c>
       <c r="H168" s="31" t="s">
-        <v>882</v>
+        <v>874</v>
       </c>
       <c r="I168" s="68" t="s">
-        <v>971</v>
+        <v>962</v>
       </c>
       <c r="J168" s="67" t="s">
-        <v>995</v>
+        <v>986</v>
       </c>
       <c r="K168" s="1" t="s">
         <v>500</v>
@@ -32954,16 +32963,16 @@
         <v>26</v>
       </c>
       <c r="M168" s="1" t="s">
-        <v>869</v>
+        <v>862</v>
       </c>
       <c r="N168" s="2" t="s">
-        <v>870</v>
+        <v>863</v>
       </c>
       <c r="O168" s="2" t="s">
-        <v>871</v>
+        <v>864</v>
       </c>
       <c r="R168" s="14" t="s">
-        <v>872</v>
+        <v>865</v>
       </c>
     </row>
     <row r="169" spans="1:18" ht="30" customHeight="1">
@@ -32971,7 +32980,7 @@
         <v>162</v>
       </c>
       <c r="B169" s="7" t="s">
-        <v>883</v>
+        <v>875</v>
       </c>
       <c r="E169" s="67"/>
       <c r="H169" s="13"/>
@@ -32984,16 +32993,16 @@
         <v>26</v>
       </c>
       <c r="M169" s="1" t="s">
-        <v>869</v>
+        <v>862</v>
       </c>
       <c r="N169" s="2" t="s">
-        <v>870</v>
+        <v>863</v>
       </c>
       <c r="O169" s="2" t="s">
-        <v>871</v>
+        <v>864</v>
       </c>
       <c r="R169" s="14" t="s">
-        <v>872</v>
+        <v>865</v>
       </c>
     </row>
     <row r="170" spans="1:18" ht="30" customHeight="1">
@@ -33001,7 +33010,7 @@
         <v>163</v>
       </c>
       <c r="B170" s="7" t="s">
-        <v>884</v>
+        <v>876</v>
       </c>
       <c r="E170" s="67"/>
       <c r="H170" s="13"/>
@@ -33014,16 +33023,16 @@
         <v>26</v>
       </c>
       <c r="M170" s="1" t="s">
-        <v>869</v>
+        <v>862</v>
       </c>
       <c r="N170" s="2" t="s">
-        <v>870</v>
+        <v>863</v>
       </c>
       <c r="O170" s="2" t="s">
-        <v>871</v>
+        <v>864</v>
       </c>
       <c r="R170" s="14" t="s">
-        <v>872</v>
+        <v>865</v>
       </c>
     </row>
     <row r="171" spans="1:18" ht="30" customHeight="1">
@@ -33031,17 +33040,17 @@
         <v>164</v>
       </c>
       <c r="B171" s="7" t="s">
-        <v>885</v>
+        <v>877</v>
       </c>
       <c r="E171" s="67"/>
       <c r="H171" s="11" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
       <c r="I171" s="68" t="s">
-        <v>972</v>
+        <v>963</v>
       </c>
       <c r="J171" s="67" t="s">
-        <v>996</v>
+        <v>987</v>
       </c>
       <c r="K171" s="1" t="s">
         <v>500</v>
@@ -33050,16 +33059,16 @@
         <v>26</v>
       </c>
       <c r="M171" s="1" t="s">
-        <v>869</v>
+        <v>862</v>
       </c>
       <c r="N171" s="2" t="s">
-        <v>870</v>
+        <v>863</v>
       </c>
       <c r="O171" s="2" t="s">
-        <v>871</v>
+        <v>864</v>
       </c>
       <c r="R171" s="14" t="s">
-        <v>872</v>
+        <v>865</v>
       </c>
     </row>
     <row r="172" spans="1:18" ht="30" customHeight="1">
@@ -33067,17 +33076,17 @@
         <v>165</v>
       </c>
       <c r="B172" s="7" t="s">
-        <v>887</v>
+        <v>879</v>
       </c>
       <c r="E172" s="67"/>
       <c r="H172" s="31" t="s">
-        <v>888</v>
+        <v>880</v>
       </c>
       <c r="I172" s="68" t="s">
-        <v>973</v>
+        <v>964</v>
       </c>
       <c r="J172" s="67" t="s">
-        <v>997</v>
+        <v>988</v>
       </c>
       <c r="K172" s="1" t="s">
         <v>500</v>
@@ -33086,16 +33095,16 @@
         <v>26</v>
       </c>
       <c r="M172" s="1" t="s">
-        <v>869</v>
+        <v>862</v>
       </c>
       <c r="N172" s="2" t="s">
-        <v>870</v>
+        <v>863</v>
       </c>
       <c r="O172" s="2" t="s">
-        <v>871</v>
+        <v>864</v>
       </c>
       <c r="R172" s="14" t="s">
-        <v>872</v>
+        <v>865</v>
       </c>
     </row>
     <row r="173" spans="1:18" ht="30" customHeight="1">
@@ -33103,17 +33112,17 @@
         <v>166</v>
       </c>
       <c r="B173" s="7" t="s">
-        <v>889</v>
+        <v>881</v>
       </c>
       <c r="E173" s="67"/>
       <c r="H173" s="11" t="s">
-        <v>890</v>
+        <v>882</v>
       </c>
       <c r="I173" s="68" t="s">
-        <v>974</v>
+        <v>965</v>
       </c>
       <c r="J173" s="67" t="s">
-        <v>998</v>
+        <v>989</v>
       </c>
       <c r="K173" s="1" t="s">
         <v>500</v>
@@ -33122,16 +33131,16 @@
         <v>26</v>
       </c>
       <c r="M173" s="1" t="s">
-        <v>869</v>
+        <v>862</v>
       </c>
       <c r="N173" s="2" t="s">
-        <v>870</v>
+        <v>863</v>
       </c>
       <c r="O173" s="2" t="s">
-        <v>871</v>
+        <v>864</v>
       </c>
       <c r="R173" s="14" t="s">
-        <v>891</v>
+        <v>883</v>
       </c>
     </row>
     <row r="174" spans="1:18" ht="30" customHeight="1">
@@ -33139,19 +33148,19 @@
         <v>167</v>
       </c>
       <c r="B174" s="7" t="s">
-        <v>892</v>
+        <v>884</v>
       </c>
       <c r="E174" s="67" t="s">
-        <v>992</v>
+        <v>983</v>
       </c>
       <c r="H174" s="11" t="s">
-        <v>893</v>
+        <v>885</v>
       </c>
       <c r="I174" s="68" t="s">
-        <v>975</v>
+        <v>966</v>
       </c>
       <c r="J174" s="67" t="s">
-        <v>999</v>
+        <v>990</v>
       </c>
       <c r="K174" s="1" t="s">
         <v>500</v>
@@ -33160,16 +33169,16 @@
         <v>26</v>
       </c>
       <c r="M174" s="1" t="s">
-        <v>869</v>
+        <v>862</v>
       </c>
       <c r="N174" s="2" t="s">
-        <v>870</v>
+        <v>863</v>
       </c>
       <c r="O174" s="2" t="s">
-        <v>871</v>
+        <v>864</v>
       </c>
       <c r="R174" s="14" t="s">
-        <v>891</v>
+        <v>883</v>
       </c>
     </row>
     <row r="175" spans="1:18" ht="30" customHeight="1">
@@ -33177,19 +33186,19 @@
         <v>168</v>
       </c>
       <c r="B175" s="7" t="s">
-        <v>894</v>
+        <v>886</v>
       </c>
       <c r="E175" s="67" t="s">
         <v>21</v>
       </c>
       <c r="H175" s="11" t="s">
-        <v>895</v>
+        <v>887</v>
       </c>
       <c r="I175" s="68" t="s">
-        <v>976</v>
+        <v>967</v>
       </c>
       <c r="J175" s="67" t="s">
-        <v>1000</v>
+        <v>991</v>
       </c>
       <c r="K175" s="1" t="s">
         <v>500</v>
@@ -33198,16 +33207,16 @@
         <v>26</v>
       </c>
       <c r="M175" s="1" t="s">
-        <v>869</v>
+        <v>862</v>
       </c>
       <c r="N175" s="2" t="s">
-        <v>870</v>
+        <v>863</v>
       </c>
       <c r="O175" s="2" t="s">
-        <v>871</v>
+        <v>864</v>
       </c>
       <c r="R175" s="14" t="s">
-        <v>891</v>
+        <v>883</v>
       </c>
     </row>
     <row r="176" spans="1:18" ht="30" customHeight="1">
@@ -33215,17 +33224,17 @@
         <v>169</v>
       </c>
       <c r="B176" s="7" t="s">
-        <v>896</v>
+        <v>888</v>
       </c>
       <c r="E176" s="67"/>
       <c r="H176" s="11" t="s">
-        <v>897</v>
+        <v>889</v>
       </c>
       <c r="I176" s="68" t="s">
-        <v>977</v>
+        <v>968</v>
       </c>
       <c r="J176" s="67" t="s">
-        <v>1001</v>
+        <v>992</v>
       </c>
       <c r="K176" s="1" t="s">
         <v>500</v>
@@ -33234,16 +33243,16 @@
         <v>26</v>
       </c>
       <c r="M176" s="1" t="s">
-        <v>869</v>
+        <v>862</v>
       </c>
       <c r="N176" s="2" t="s">
-        <v>870</v>
+        <v>863</v>
       </c>
       <c r="O176" s="2" t="s">
-        <v>871</v>
+        <v>864</v>
       </c>
       <c r="R176" s="14" t="s">
-        <v>891</v>
+        <v>883</v>
       </c>
     </row>
     <row r="177" spans="1:18" ht="30" customHeight="1">
@@ -33251,19 +33260,19 @@
         <v>170</v>
       </c>
       <c r="B177" s="7" t="s">
-        <v>898</v>
+        <v>890</v>
       </c>
       <c r="E177" s="67" t="s">
-        <v>992</v>
+        <v>983</v>
       </c>
       <c r="H177" s="11" t="s">
-        <v>899</v>
+        <v>891</v>
       </c>
       <c r="I177" s="68" t="s">
-        <v>978</v>
+        <v>969</v>
       </c>
       <c r="J177" s="67" t="s">
-        <v>1002</v>
+        <v>993</v>
       </c>
       <c r="K177" s="1" t="s">
         <v>500</v>
@@ -33272,16 +33281,16 @@
         <v>26</v>
       </c>
       <c r="M177" s="1" t="s">
-        <v>869</v>
+        <v>862</v>
       </c>
       <c r="N177" s="2" t="s">
-        <v>870</v>
+        <v>863</v>
       </c>
       <c r="O177" s="2" t="s">
-        <v>871</v>
+        <v>864</v>
       </c>
       <c r="R177" s="14" t="s">
-        <v>891</v>
+        <v>883</v>
       </c>
     </row>
     <row r="178" spans="1:18" ht="30" customHeight="1">
@@ -33289,19 +33298,19 @@
         <v>171</v>
       </c>
       <c r="B178" s="7" t="s">
-        <v>900</v>
+        <v>1047</v>
       </c>
       <c r="E178" s="67" t="s">
         <v>34</v>
       </c>
       <c r="H178" s="11" t="s">
-        <v>901</v>
+        <v>892</v>
       </c>
       <c r="I178" s="68" t="s">
-        <v>979</v>
+        <v>970</v>
       </c>
       <c r="J178" s="67" t="s">
-        <v>1003</v>
+        <v>994</v>
       </c>
       <c r="K178" s="1" t="s">
         <v>500</v>
@@ -33310,16 +33319,16 @@
         <v>26</v>
       </c>
       <c r="M178" s="1" t="s">
-        <v>869</v>
+        <v>862</v>
       </c>
       <c r="N178" s="2" t="s">
-        <v>870</v>
+        <v>863</v>
       </c>
       <c r="O178" s="2" t="s">
-        <v>871</v>
+        <v>864</v>
       </c>
       <c r="R178" s="14" t="s">
-        <v>891</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="179" spans="1:18" ht="30" customHeight="1">
@@ -33327,17 +33336,17 @@
         <v>172</v>
       </c>
       <c r="B179" s="7" t="s">
-        <v>902</v>
+        <v>893</v>
       </c>
       <c r="E179" s="67"/>
       <c r="H179" s="11" t="s">
-        <v>903</v>
+        <v>894</v>
       </c>
       <c r="I179" s="68" t="s">
-        <v>980</v>
+        <v>971</v>
       </c>
       <c r="J179" s="67" t="s">
-        <v>1004</v>
+        <v>995</v>
       </c>
       <c r="K179" s="1" t="s">
         <v>500</v>
@@ -33346,16 +33355,16 @@
         <v>26</v>
       </c>
       <c r="M179" s="1" t="s">
-        <v>869</v>
+        <v>862</v>
       </c>
       <c r="N179" s="2" t="s">
-        <v>870</v>
+        <v>863</v>
       </c>
       <c r="O179" s="2" t="s">
-        <v>871</v>
+        <v>864</v>
       </c>
       <c r="R179" s="14" t="s">
-        <v>891</v>
+        <v>883</v>
       </c>
     </row>
     <row r="180" spans="1:18" ht="30" customHeight="1">
@@ -33363,17 +33372,17 @@
         <v>173</v>
       </c>
       <c r="B180" s="7" t="s">
-        <v>904</v>
+        <v>895</v>
       </c>
       <c r="E180" s="67"/>
       <c r="H180" s="11" t="s">
-        <v>905</v>
+        <v>896</v>
       </c>
       <c r="I180" s="68" t="s">
-        <v>981</v>
+        <v>972</v>
       </c>
       <c r="J180" s="67" t="s">
-        <v>1005</v>
+        <v>996</v>
       </c>
       <c r="K180" s="1" t="s">
         <v>500</v>
@@ -33382,16 +33391,16 @@
         <v>26</v>
       </c>
       <c r="M180" s="1" t="s">
-        <v>869</v>
+        <v>862</v>
       </c>
       <c r="N180" s="2" t="s">
-        <v>870</v>
+        <v>863</v>
       </c>
       <c r="O180" s="2" t="s">
-        <v>871</v>
+        <v>864</v>
       </c>
       <c r="R180" s="14" t="s">
-        <v>891</v>
+        <v>883</v>
       </c>
     </row>
     <row r="181" spans="1:18" ht="30" customHeight="1">
@@ -33399,7 +33408,7 @@
         <v>174</v>
       </c>
       <c r="B181" s="7" t="s">
-        <v>906</v>
+        <v>897</v>
       </c>
       <c r="H181" s="13"/>
       <c r="I181" s="63"/>
@@ -33410,16 +33419,16 @@
         <v>26</v>
       </c>
       <c r="M181" s="1" t="s">
-        <v>869</v>
+        <v>862</v>
       </c>
       <c r="N181" s="2" t="s">
-        <v>870</v>
+        <v>863</v>
       </c>
       <c r="O181" s="2" t="s">
-        <v>871</v>
+        <v>864</v>
       </c>
       <c r="R181" s="14" t="s">
-        <v>891</v>
+        <v>883</v>
       </c>
     </row>
   </sheetData>
